--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.furtado\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E609CDE-DA1C-4766-9179-1DA9278BBAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6802153-8783-4032-8A77-E44EA131632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12797" uniqueCount="3972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12803" uniqueCount="3978">
   <si>
     <t>nome</t>
   </si>
@@ -11937,6 +11937,24 @@
   </si>
   <si>
     <t>resultado</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
+  </si>
+  <si>
+    <t>Franklin Furtado e Hortencia Silva</t>
+  </si>
+  <si>
+    <t>Rosania Marques, Fernanda Almeida e Antonio Mateus</t>
+  </si>
+  <si>
+    <t>Reprovado</t>
+  </si>
+  <si>
+    <t>Desistente</t>
+  </si>
+  <si>
+    <t>Transferido</t>
   </si>
 </sst>
 </file>
@@ -12006,13 +12024,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12367,7 +12388,7 @@
   <dimension ref="A1:H2133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12378,6 +12399,8 @@
     <col min="4" max="4" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -12425,8 +12448,14 @@
       <c r="F2" t="s">
         <v>3956</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -12444,6 +12473,12 @@
       </c>
       <c r="F3" t="s">
         <v>3957</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3974</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3975</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -12465,6 +12500,9 @@
       <c r="F4" t="s">
         <v>3957</v>
       </c>
+      <c r="H4" t="s">
+        <v>3976</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -12484,6 +12522,9 @@
       </c>
       <c r="F5" t="s">
         <v>3958</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3977</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.furtado\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6802153-8783-4032-8A77-E44EA131632F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4635FC3B-CEEE-4026-B7BB-C899CF9CC0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12803" uniqueCount="3978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12805" uniqueCount="3979">
   <si>
     <t>nome</t>
   </si>
@@ -11955,6 +11955,9 @@
   </si>
   <si>
     <t>Transferido</t>
+  </si>
+  <si>
+    <t>#CC3300</t>
   </si>
 </sst>
 </file>
@@ -12387,7 +12390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -55076,10 +55079,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A44818F-35C6-4CA8-B925-406E5B547076}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -55095,6 +55098,14 @@
         <v>3969</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3978</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C5FDF-2FD8-4637-8C24-E764BE281882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A9880-2940-4C29-9F72-D998FEE54188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="tabelas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -926,7 +926,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1266,11 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>22/06/2013</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1374,7 +1373,7 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
@@ -1405,7 +1404,7 @@
       </c>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
@@ -1436,7 +1435,7 @@
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1466,7 @@
       </c>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>29</v>
       </c>
@@ -1498,7 +1497,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>150</v>
       </c>
@@ -1529,7 +1528,7 @@
       </c>
       <c r="J8" s="12"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -1560,7 +1559,7 @@
       </c>
       <c r="J9" s="12"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>151</v>
       </c>
@@ -1591,7 +1590,7 @@
       </c>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1621,7 @@
       </c>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1652,7 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
@@ -1684,7 +1683,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
@@ -1715,7 +1714,7 @@
       </c>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -1746,7 +1745,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>34</v>
       </c>
@@ -1808,7 +1807,7 @@
       </c>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -1839,7 +1838,7 @@
       </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1870,7 +1869,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
@@ -1901,7 +1900,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>39</v>
       </c>
@@ -1932,7 +1931,7 @@
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>40</v>
       </c>
@@ -1963,7 +1962,7 @@
       </c>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
@@ -1994,7 +1993,7 @@
       </c>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>42</v>
       </c>
@@ -2025,7 +2024,7 @@
       </c>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>43</v>
       </c>
@@ -2056,7 +2055,7 @@
       </c>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>44</v>
       </c>
@@ -2087,7 +2086,7 @@
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
@@ -2118,7 +2117,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>46</v>
       </c>
@@ -2149,7 +2148,7 @@
       </c>
       <c r="J28" s="12"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>47</v>
       </c>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="J29" s="12"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>48</v>
       </c>
@@ -2211,7 +2210,7 @@
       </c>
       <c r="J30" s="12"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>49</v>
       </c>
@@ -2242,7 +2241,7 @@
       </c>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>50</v>
       </c>
@@ -2273,7 +2272,7 @@
       </c>
       <c r="J32" s="12"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>51</v>
       </c>
@@ -2304,7 +2303,7 @@
       </c>
       <c r="J33" s="12"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
@@ -2335,7 +2334,7 @@
       </c>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
@@ -2366,7 +2365,7 @@
       </c>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>54</v>
       </c>
@@ -2397,7 +2396,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>55</v>
       </c>
@@ -2428,7 +2427,7 @@
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2458,7 @@
       </c>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>57</v>
       </c>
@@ -2490,7 +2489,7 @@
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>58</v>
       </c>
@@ -2521,7 +2520,7 @@
       </c>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -2552,7 +2551,7 @@
       </c>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>60</v>
       </c>
@@ -2583,7 +2582,7 @@
       </c>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -2614,7 +2613,7 @@
       </c>
       <c r="J43" s="12"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>62</v>
       </c>
@@ -2645,7 +2644,7 @@
       </c>
       <c r="J44" s="12"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>63</v>
       </c>
@@ -2676,7 +2675,7 @@
       </c>
       <c r="J45" s="12"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>64</v>
       </c>
@@ -2707,7 +2706,7 @@
       </c>
       <c r="J46" s="12"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>65</v>
       </c>
@@ -2738,7 +2737,7 @@
       </c>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>66</v>
       </c>
@@ -2769,7 +2768,7 @@
       </c>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>67</v>
       </c>
@@ -2800,7 +2799,7 @@
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>68</v>
       </c>
@@ -2831,7 +2830,7 @@
       </c>
       <c r="J50" s="12"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>69</v>
       </c>
@@ -2862,7 +2861,7 @@
       </c>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>70</v>
       </c>
@@ -2893,7 +2892,7 @@
       </c>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>71</v>
       </c>
@@ -2924,7 +2923,7 @@
       </c>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>72</v>
       </c>
@@ -2955,7 +2954,7 @@
       </c>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>73</v>
       </c>
@@ -2986,7 +2985,7 @@
       </c>
       <c r="J55" s="12"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>136</v>
       </c>
@@ -3017,7 +3016,7 @@
       </c>
       <c r="J56" s="12"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>74</v>
       </c>
@@ -3048,7 +3047,7 @@
       </c>
       <c r="J57" s="12"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>75</v>
       </c>
@@ -3079,7 +3078,7 @@
       </c>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>76</v>
       </c>
@@ -3110,7 +3109,7 @@
       </c>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>77</v>
       </c>
@@ -3141,7 +3140,7 @@
       </c>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
@@ -3172,7 +3171,7 @@
       </c>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>79</v>
       </c>
@@ -3203,7 +3202,7 @@
       </c>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>80</v>
       </c>
@@ -3234,7 +3233,7 @@
       </c>
       <c r="J63" s="10"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>81</v>
       </c>
@@ -3265,7 +3264,7 @@
       </c>
       <c r="J64" s="12"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>82</v>
       </c>
@@ -3296,7 +3295,7 @@
       </c>
       <c r="J65" s="12"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>83</v>
       </c>
@@ -3327,7 +3326,7 @@
       </c>
       <c r="J66" s="12"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>84</v>
       </c>
@@ -3358,7 +3357,7 @@
       </c>
       <c r="J67" s="12"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>85</v>
       </c>
@@ -3389,7 +3388,7 @@
       </c>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>86</v>
       </c>
@@ -3417,7 +3416,7 @@
       </c>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>87</v>
       </c>
@@ -3448,7 +3447,7 @@
       </c>
       <c r="J70" s="12"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>88</v>
       </c>
@@ -3479,7 +3478,7 @@
       </c>
       <c r="J71" s="12"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>89</v>
       </c>
@@ -3510,7 +3509,7 @@
       </c>
       <c r="J72" s="12"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>90</v>
       </c>
@@ -3541,7 +3540,7 @@
       </c>
       <c r="J73" s="12"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>91</v>
       </c>
@@ -3572,7 +3571,7 @@
       </c>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>92</v>
       </c>
@@ -3603,7 +3602,7 @@
       </c>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
@@ -3634,7 +3633,7 @@
       </c>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>94</v>
       </c>
@@ -3665,7 +3664,7 @@
       </c>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>95</v>
       </c>
@@ -3696,7 +3695,7 @@
       </c>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>96</v>
       </c>
@@ -3727,7 +3726,7 @@
       </c>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>97</v>
       </c>
@@ -3758,7 +3757,7 @@
       </c>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>98</v>
       </c>
@@ -3789,7 +3788,7 @@
       </c>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>99</v>
       </c>
@@ -3820,7 +3819,7 @@
       </c>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>100</v>
       </c>
@@ -3851,7 +3850,7 @@
       </c>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>101</v>
       </c>
@@ -3882,7 +3881,7 @@
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>102</v>
       </c>
@@ -3913,7 +3912,7 @@
       </c>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>103</v>
       </c>
@@ -3944,7 +3943,7 @@
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>104</v>
       </c>
@@ -3975,7 +3974,7 @@
       </c>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>105</v>
       </c>
@@ -4006,7 +4005,7 @@
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>106</v>
       </c>
@@ -4037,7 +4036,7 @@
       </c>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>107</v>
       </c>
@@ -4068,7 +4067,7 @@
       </c>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>108</v>
       </c>
@@ -4099,7 +4098,7 @@
       </c>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>109</v>
       </c>
@@ -4130,7 +4129,7 @@
       </c>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>110</v>
       </c>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>111</v>
       </c>
@@ -4192,7 +4191,7 @@
       </c>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>112</v>
       </c>
@@ -4223,7 +4222,7 @@
       </c>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>113</v>
       </c>
@@ -4285,7 +4284,7 @@
       </c>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>115</v>
       </c>
@@ -4316,7 +4315,7 @@
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>116</v>
       </c>
@@ -4347,7 +4346,7 @@
       </c>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>117</v>
       </c>
@@ -4378,7 +4377,7 @@
       </c>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>118</v>
       </c>
@@ -4409,7 +4408,7 @@
       </c>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>119</v>
       </c>
@@ -4440,7 +4439,7 @@
       </c>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>120</v>
       </c>
@@ -4471,7 +4470,7 @@
       </c>
       <c r="J103" s="10"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>121</v>
       </c>
@@ -4502,7 +4501,7 @@
       </c>
       <c r="J104" s="10"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>122</v>
       </c>
@@ -4533,7 +4532,7 @@
       </c>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>123</v>
       </c>
@@ -4564,7 +4563,7 @@
       </c>
       <c r="J106" s="10"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>78</v>
       </c>
@@ -4594,7 +4593,7 @@
         <v>21/05/2004</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>151</v>
       </c>
@@ -4624,7 +4623,7 @@
         <v>17/06/2013</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>150</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>13/03/2013</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>241</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>14/03/2017</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>242</v>
       </c>
@@ -4742,13 +4741,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J111" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="HELENA SAMBI"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792A9880-2940-4C29-9F72-D998FEE54188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A9141-CF2B-40A7-AAD7-CBFDA18BBFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="248">
   <si>
     <t>nome</t>
   </si>
@@ -32,27 +32,12 @@
     <t>nascimento</t>
   </si>
   <si>
-    <t>centro</t>
-  </si>
-  <si>
-    <t>etapa</t>
-  </si>
-  <si>
-    <t>sala</t>
-  </si>
-  <si>
-    <t>horario</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>cor</t>
   </si>
   <si>
-    <t>catequistas</t>
-  </si>
-  <si>
     <t>resultado</t>
   </si>
   <si>
@@ -765,6 +750,24 @@
   </si>
   <si>
     <t>Manuela Bernada Manuel</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Turma</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Catequistas</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1272,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,54 +1291,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>TEXT(B2,"DD/MM/AAAA")</f>
@@ -1344,28 +1347,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I3" s="12" t="str">
         <f t="shared" ref="I3:I66" si="0">TEXT(B3,"DD/MM/AAAA")</f>
@@ -1375,28 +1378,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1406,28 +1409,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1437,28 +1440,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1468,28 +1471,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1499,28 +1502,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1530,28 +1533,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1561,28 +1564,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1592,28 +1595,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1623,28 +1626,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1654,28 +1657,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1685,28 +1688,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1716,28 +1719,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1747,28 +1750,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1778,28 +1781,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1809,28 +1812,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1840,28 +1843,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1871,28 +1874,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1902,28 +1905,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I21" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1933,28 +1936,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1964,28 +1967,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1995,28 +1998,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2026,28 +2029,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2057,28 +2060,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I26" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2088,28 +2091,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2119,28 +2122,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I28" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2150,28 +2153,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I29" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2181,28 +2184,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I30" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2212,28 +2215,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I31" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2243,28 +2246,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I32" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2274,28 +2277,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I33" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2305,28 +2308,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I34" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2336,28 +2339,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I35" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2367,28 +2370,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I36" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2398,28 +2401,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I37" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2429,28 +2432,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I38" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2460,28 +2463,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H39" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I39" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2491,28 +2494,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I40" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2522,28 +2525,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I41" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2553,28 +2556,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I42" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2584,28 +2587,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G43" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H43" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I43" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2615,28 +2618,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G44" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H44" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I44" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2646,28 +2649,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I45" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2677,28 +2680,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I46" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2708,28 +2711,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H47" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I47" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2739,28 +2742,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H48" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I48" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2770,28 +2773,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G49" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I49" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2801,28 +2804,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I50" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2832,28 +2835,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H51" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I51" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2863,28 +2866,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I52" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2894,28 +2897,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H53" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I53" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2925,28 +2928,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H54" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I54" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2956,28 +2959,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I55" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2987,28 +2990,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F56" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I56" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3018,28 +3021,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I57" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3049,28 +3052,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I58" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3080,28 +3083,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I59" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3111,28 +3114,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I60" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3142,28 +3145,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I61" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3173,28 +3176,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H62" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I62" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3204,28 +3207,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I63" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3235,28 +3238,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I64" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3266,28 +3269,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I65" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3297,28 +3300,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H66" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I66" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3328,28 +3331,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H67" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I67" s="12" t="str">
         <f t="shared" ref="I67:I109" si="1">TEXT(B67,"DD/MM/AAAA")</f>
@@ -3359,28 +3362,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H68" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I68" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3390,25 +3393,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H69" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I69" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3418,28 +3421,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H70" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I70" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3449,28 +3452,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I71" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3480,28 +3483,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I72" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3511,28 +3514,28 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I73" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3542,28 +3545,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I74" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3573,28 +3576,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G75" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H75" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I75" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3604,28 +3607,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F76" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I76" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3635,28 +3638,28 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G77" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H77" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I77" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3666,28 +3669,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G78" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I78" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3697,28 +3700,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G79" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H79" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I79" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3728,28 +3731,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I80" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3759,28 +3762,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I81" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3790,28 +3793,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G82" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H82" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I82" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3821,28 +3824,28 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H83" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I83" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3852,28 +3855,28 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H84" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I84" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3883,28 +3886,28 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B85" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I85" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3914,28 +3917,28 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G86" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H86" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I86" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3945,28 +3948,28 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E87" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G87" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H87" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I87" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3976,28 +3979,28 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F88" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G88" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H88" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I88" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4007,28 +4010,28 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E89" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F89" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G89" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H89" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I89" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4038,28 +4041,28 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H90" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I90" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4069,28 +4072,28 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B91" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E91" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H91" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I91" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4100,28 +4103,28 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H92" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I92" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4131,28 +4134,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B93" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E93" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H93" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I93" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4162,28 +4165,28 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B94" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G94" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H94" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I94" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4193,28 +4196,28 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G95" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H95" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I95" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4224,28 +4227,28 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F96" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G96" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H96" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I96" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4255,28 +4258,28 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G97" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H97" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I97" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4286,28 +4289,28 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G98" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H98" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I98" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4317,28 +4320,28 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H99" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I99" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4348,28 +4351,28 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H100" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I100" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4379,28 +4382,28 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G101" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H101" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I101" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4410,28 +4413,28 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G102" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I102" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4441,28 +4444,28 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G103" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H103" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I103" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4472,28 +4475,28 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G104" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H104" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I104" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4503,28 +4506,28 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H105" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I105" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4534,28 +4537,28 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H106" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I106" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4565,28 +4568,28 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F107" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H107" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I107" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4595,28 +4598,28 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G108" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H108" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I108" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4625,28 +4628,28 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G109" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H109" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I109" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4655,28 +4658,28 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B110" s="14">
         <v>42808</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H110" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I110" s="12" t="str">
         <f t="shared" ref="I110:I112" si="2">TEXT(B110,"DD/MM/AAAA")</f>
@@ -4685,28 +4688,28 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B111" s="17">
         <v>41184</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G111" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H111" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I111" s="12" t="str">
         <f t="shared" si="2"/>
@@ -4715,25 +4718,25 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B112" s="18">
         <v>40365</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E112" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G112" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I112" s="12" t="str">
         <f t="shared" si="2"/>
@@ -4763,45 +4766,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975A9141-CF2B-40A7-AAD7-CBFDA18BBFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC796D6-CDAD-446E-A48A-1765B71DCB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="247">
   <si>
     <t>nome</t>
   </si>
@@ -32,12 +32,27 @@
     <t>nascimento</t>
   </si>
   <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>etapa</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>horario</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>cor</t>
   </si>
   <si>
+    <t>catequistas</t>
+  </si>
+  <si>
     <t>resultado</t>
   </si>
   <si>
@@ -750,33 +765,12 @@
   </si>
   <si>
     <t>Manuela Bernada Manuel</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Centro</t>
-  </si>
-  <si>
-    <t>Etapa</t>
-  </si>
-  <si>
-    <t>Turma</t>
-  </si>
-  <si>
-    <t>Horario</t>
-  </si>
-  <si>
-    <t>Catequistas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,12 +828,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +883,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -928,7 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,9 +924,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,7 +1256,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,54 +1275,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>243</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>247</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I2" s="12" t="str">
         <f>TEXT(B2,"DD/MM/AAAA")</f>
@@ -1347,28 +1331,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I3" s="12" t="str">
         <f t="shared" ref="I3:I66" si="0">TEXT(B3,"DD/MM/AAAA")</f>
@@ -1378,28 +1362,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1409,28 +1393,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1440,28 +1424,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1471,28 +1455,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1502,28 +1486,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1533,28 +1517,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1564,28 +1548,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1595,28 +1579,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1626,28 +1610,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1657,28 +1641,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1688,28 +1672,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1719,28 +1703,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1750,28 +1734,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1781,28 +1765,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1812,28 +1796,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I18" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1843,28 +1827,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
         <v>132</v>
       </c>
-      <c r="F19" t="s">
-        <v>127</v>
-      </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1874,28 +1858,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1905,28 +1889,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I21" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1936,28 +1920,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I22" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1967,28 +1951,28 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I23" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1998,28 +1982,28 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I24" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2029,28 +2013,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
         <v>132</v>
       </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I25" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2060,28 +2044,28 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I26" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2091,28 +2075,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H27" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I27" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2122,28 +2106,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G28" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I28" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2153,28 +2137,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H29" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I29" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2184,28 +2168,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I30" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2215,28 +2199,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I31" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2246,28 +2230,28 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
       <c r="F32" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I32" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2277,28 +2261,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I33" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2308,28 +2292,28 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G34" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I34" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2339,28 +2323,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I35" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2370,28 +2354,28 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I36" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2401,28 +2385,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I37" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2432,28 +2416,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I38" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2463,28 +2447,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I39" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2494,28 +2478,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G40" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I40" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2525,28 +2509,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H41" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I41" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2556,28 +2540,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I42" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2587,28 +2571,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G43" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H43" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I43" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2618,28 +2602,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I44" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2649,28 +2633,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
         <v>132</v>
       </c>
-      <c r="F45" t="s">
-        <v>127</v>
-      </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I45" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2680,28 +2664,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E46" t="s">
-        <v>13</v>
-      </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I46" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2711,28 +2695,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" t="s">
-        <v>13</v>
-      </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G47" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I47" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2742,28 +2726,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G48" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I48" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2773,28 +2757,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" t="s">
-        <v>13</v>
-      </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I49" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2804,28 +2788,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I50" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2835,28 +2819,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" t="s">
-        <v>13</v>
-      </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H51" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I51" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2866,28 +2850,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G52" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I52" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2897,28 +2881,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I53" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2928,28 +2912,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I54" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2959,28 +2943,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
         <v>132</v>
       </c>
-      <c r="F55" t="s">
-        <v>127</v>
-      </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I55" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2990,28 +2974,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E56" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" t="s">
         <v>132</v>
       </c>
-      <c r="F56" t="s">
-        <v>127</v>
-      </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I56" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3021,28 +3005,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H57" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I57" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3052,28 +3036,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H58" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I58" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3083,28 +3067,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B59" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I59" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3114,28 +3098,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H60" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I60" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3145,28 +3129,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H61" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I61" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3176,28 +3160,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H62" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I62" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3207,28 +3191,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H63" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I63" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3238,28 +3222,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I64" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3269,28 +3253,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H65" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I65" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3300,28 +3284,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H66" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I66" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3331,28 +3315,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I67" s="12" t="str">
         <f t="shared" ref="I67:I109" si="1">TEXT(B67,"DD/MM/AAAA")</f>
@@ -3362,28 +3346,28 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G68" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H68" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I68" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3393,25 +3377,25 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H69" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I69" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3421,28 +3405,28 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I70" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3452,28 +3436,28 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I71" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3483,28 +3467,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H72" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I72" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3514,28 +3498,28 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H73" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I73" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3545,28 +3529,28 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H74" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I74" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3576,28 +3560,28 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G75" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I75" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3607,28 +3591,28 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I76" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3638,28 +3622,28 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H77" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I77" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3669,28 +3653,28 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H78" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I78" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3700,28 +3684,28 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G79" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H79" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I79" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3731,28 +3715,28 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I80" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3762,28 +3746,28 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I81" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3793,28 +3777,28 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E82" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G82" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H82" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I82" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3824,28 +3808,28 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H83" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I83" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3855,28 +3839,28 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E84" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H84" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I84" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3886,28 +3870,28 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E85" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H85" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I85" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3917,28 +3901,28 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G86" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I86" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3948,28 +3932,28 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H87" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I87" s="12" t="str">
         <f t="shared" si="1"/>
@@ -3979,28 +3963,28 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H88" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I88" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4010,28 +3994,28 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H89" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I89" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4041,28 +4025,28 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C90" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I90" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4072,28 +4056,28 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E91" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H91" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I91" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4103,28 +4087,28 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E92" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H92" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I92" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4134,28 +4118,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H93" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I93" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4165,28 +4149,28 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E94" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H94" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I94" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4196,28 +4180,28 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E95" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I95" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4227,28 +4211,28 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B96" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F96" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G96" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H96" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I96" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4258,28 +4242,28 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B97" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
       <c r="F97" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G97" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H97" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I97" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4289,28 +4273,28 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B98" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G98" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H98" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I98" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4320,28 +4304,28 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E99" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F99" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G99" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H99" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I99" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4351,28 +4335,28 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I100" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4382,28 +4366,28 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>214</v>
+        <v>118</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F101" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G101" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H101" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I101" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4413,28 +4397,28 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>229</v>
+        <v>119</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>234</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G102" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I102" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4444,28 +4428,28 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>230</v>
+        <v>120</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E103" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G103" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H103" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I103" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4475,28 +4459,28 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F104" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I104" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4506,28 +4490,28 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H105" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I105" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4537,28 +4521,28 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E106" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I106" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4568,28 +4552,28 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B107" t="s">
-        <v>190</v>
+        <v>78</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G107" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H107" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I107" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4598,28 +4582,28 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" t="s">
-        <v>234</v>
+        <v>151</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G108" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H108" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I108" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4628,28 +4612,28 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B109" t="s">
-        <v>235</v>
+        <v>150</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>240</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E109" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G109" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H109" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I109" s="12" t="str">
         <f t="shared" si="1"/>
@@ -4658,85 +4642,85 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B110" s="14">
-        <v>42808</v>
+        <v>241</v>
+      </c>
+      <c r="B110" s="16">
+        <v>46460</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H110" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I110" s="12" t="str">
         <f t="shared" ref="I110:I112" si="2">TEXT(B110,"DD/MM/AAAA")</f>
-        <v>14/03/2017</v>
+        <v>14/03/2027</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B111" s="17">
+        <v>242</v>
+      </c>
+      <c r="B111" s="16">
         <v>41184</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>125</v>
+        <v>23</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F111" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G111" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H111" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I111" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(B111,"DD/MM/AAAA")</f>
         <v>02/10/2012</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B112" s="18">
+        <v>246</v>
+      </c>
+      <c r="B112" s="16">
         <v>40365</v>
       </c>
       <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
       <c r="F112" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G112" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I112" s="12" t="str">
         <f t="shared" si="2"/>
@@ -4766,45 +4750,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D80AD8F-8FAB-451A-BB27-B778DCB793F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64893E7-1F08-419E-854A-E5281F27422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1254,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="103" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franklin.furtado\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64893E7-1F08-419E-854A-E5281F27422C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9697902-F02B-4CA3-B4E7-EEC2B81D30CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="249">
   <si>
     <t>nome</t>
   </si>
@@ -768,6 +768,9 @@
   </si>
   <si>
     <t>Manuela Bernada Manuel</t>
+  </si>
+  <si>
+    <t>Manuela Bernada pedro</t>
   </si>
 </sst>
 </file>
@@ -965,9 +968,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1005,9 +1008,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,9 +1043,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1075,9 +1095,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1254,23 +1291,23 @@
   <dimension ref="A1:J2283"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H112"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1296,7 +1333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -1324,7 +1361,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
@@ -1352,7 +1389,7 @@
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
@@ -1380,7 +1417,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1445,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
@@ -1436,7 +1473,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1501,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>151</v>
       </c>
@@ -1492,7 +1529,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -1520,7 +1557,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>152</v>
       </c>
@@ -1548,7 +1585,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>116</v>
       </c>
@@ -1576,7 +1613,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
@@ -1604,7 +1641,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
@@ -1632,7 +1669,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1697,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1725,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1716,7 +1753,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
@@ -1744,7 +1781,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1772,7 +1809,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1800,7 +1837,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
@@ -1828,7 +1865,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +1893,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>41</v>
       </c>
@@ -1884,7 +1921,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>42</v>
       </c>
@@ -1912,7 +1949,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>43</v>
       </c>
@@ -1940,7 +1977,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>44</v>
       </c>
@@ -1968,7 +2005,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>45</v>
       </c>
@@ -1996,7 +2033,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>46</v>
       </c>
@@ -2024,7 +2061,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +2089,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2117,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>49</v>
       </c>
@@ -2108,7 +2145,7 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>50</v>
       </c>
@@ -2136,7 +2173,7 @@
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2201,7 @@
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2229,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>53</v>
       </c>
@@ -2220,7 +2257,7 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>54</v>
       </c>
@@ -2248,7 +2285,7 @@
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>55</v>
       </c>
@@ -2276,7 +2313,7 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>56</v>
       </c>
@@ -2304,7 +2341,7 @@
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
@@ -2332,7 +2369,7 @@
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>58</v>
       </c>
@@ -2360,7 +2397,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
@@ -2388,7 +2425,7 @@
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>60</v>
       </c>
@@ -2416,7 +2453,7 @@
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>61</v>
       </c>
@@ -2444,7 +2481,7 @@
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>62</v>
       </c>
@@ -2472,7 +2509,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
@@ -2500,7 +2537,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>64</v>
       </c>
@@ -2528,7 +2565,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
@@ -2556,7 +2593,7 @@
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>66</v>
       </c>
@@ -2584,7 +2621,7 @@
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>67</v>
       </c>
@@ -2612,7 +2649,7 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>68</v>
       </c>
@@ -2640,7 +2677,7 @@
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>69</v>
       </c>
@@ -2668,7 +2705,7 @@
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>70</v>
       </c>
@@ -2696,7 +2733,7 @@
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>71</v>
       </c>
@@ -2724,7 +2761,7 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>72</v>
       </c>
@@ -2752,7 +2789,7 @@
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>73</v>
       </c>
@@ -2780,7 +2817,7 @@
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>74</v>
       </c>
@@ -2808,7 +2845,7 @@
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>137</v>
       </c>
@@ -2836,7 +2873,7 @@
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>75</v>
       </c>
@@ -2864,7 +2901,7 @@
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>76</v>
       </c>
@@ -2892,7 +2929,7 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>77</v>
       </c>
@@ -2920,7 +2957,7 @@
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>78</v>
       </c>
@@ -2948,7 +2985,7 @@
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -2976,7 +3013,7 @@
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>80</v>
       </c>
@@ -3004,7 +3041,7 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>81</v>
       </c>
@@ -3032,7 +3069,7 @@
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>82</v>
       </c>
@@ -3060,7 +3097,7 @@
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>83</v>
       </c>
@@ -3088,7 +3125,7 @@
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>84</v>
       </c>
@@ -3116,7 +3153,7 @@
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>85</v>
       </c>
@@ -3144,7 +3181,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>86</v>
       </c>
@@ -3172,7 +3209,7 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
@@ -3197,7 +3234,7 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>88</v>
       </c>
@@ -3225,7 +3262,7 @@
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>89</v>
       </c>
@@ -3253,7 +3290,7 @@
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>90</v>
       </c>
@@ -3281,7 +3318,7 @@
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>91</v>
       </c>
@@ -3309,7 +3346,7 @@
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
         <v>92</v>
       </c>
@@ -3337,7 +3374,7 @@
       <c r="I74" s="11"/>
       <c r="J74" s="11"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>93</v>
       </c>
@@ -3365,7 +3402,7 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>94</v>
       </c>
@@ -3393,7 +3430,7 @@
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
         <v>95</v>
       </c>
@@ -3421,7 +3458,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
         <v>96</v>
       </c>
@@ -3449,7 +3486,7 @@
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>97</v>
       </c>
@@ -3477,7 +3514,7 @@
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>98</v>
       </c>
@@ -3505,7 +3542,7 @@
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
         <v>99</v>
       </c>
@@ -3533,7 +3570,7 @@
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>100</v>
       </c>
@@ -3561,7 +3598,7 @@
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>101</v>
       </c>
@@ -3589,7 +3626,7 @@
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
         <v>102</v>
       </c>
@@ -3617,7 +3654,7 @@
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
         <v>103</v>
       </c>
@@ -3645,7 +3682,7 @@
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>104</v>
       </c>
@@ -3673,7 +3710,7 @@
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>105</v>
       </c>
@@ -3701,7 +3738,7 @@
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>106</v>
       </c>
@@ -3729,7 +3766,7 @@
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
         <v>107</v>
       </c>
@@ -3757,7 +3794,7 @@
       <c r="I89" s="11"/>
       <c r="J89" s="11"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>108</v>
       </c>
@@ -3785,7 +3822,7 @@
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>109</v>
       </c>
@@ -3813,7 +3850,7 @@
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>110</v>
       </c>
@@ -3841,7 +3878,7 @@
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>111</v>
       </c>
@@ -3869,7 +3906,7 @@
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
         <v>112</v>
       </c>
@@ -3897,7 +3934,7 @@
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>113</v>
       </c>
@@ -3925,7 +3962,7 @@
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
         <v>114</v>
       </c>
@@ -3953,7 +3990,7 @@
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>115</v>
       </c>
@@ -3981,7 +4018,7 @@
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
         <v>116</v>
       </c>
@@ -4009,7 +4046,7 @@
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>117</v>
       </c>
@@ -4037,7 +4074,7 @@
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>118</v>
       </c>
@@ -4065,7 +4102,7 @@
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="9" t="s">
         <v>119</v>
       </c>
@@ -4093,7 +4130,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>120</v>
       </c>
@@ -4121,7 +4158,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="9" t="s">
         <v>121</v>
       </c>
@@ -4149,7 +4186,7 @@
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>122</v>
       </c>
@@ -4177,7 +4214,7 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>123</v>
       </c>
@@ -4205,7 +4242,7 @@
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>124</v>
       </c>
@@ -4233,7 +4270,7 @@
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>79</v>
       </c>
@@ -4259,7 +4296,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="9" t="s">
         <v>152</v>
       </c>
@@ -4285,7 +4322,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>151</v>
       </c>
@@ -4311,7 +4348,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>245</v>
       </c>
@@ -4337,7 +4374,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="9" t="s">
         <v>246</v>
       </c>
@@ -4363,7 +4400,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>247</v>
       </c>
@@ -4389,6517 +4426,6540 @@
         <v>244</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="8"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B113" s="16">
+        <v>40365</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
+      </c>
+      <c r="F113" t="s">
+        <v>144</v>
+      </c>
+      <c r="G113" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B114" s="8"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B115" s="8"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B116" s="8"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B117" s="8"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B118" s="8"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B119" s="8"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B120" s="8"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B121" s="8"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B122" s="8"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B123" s="8"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B124" s="8"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B125" s="8"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B126" s="8"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B127" s="8"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B128" s="8"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="8"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="8"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="8"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="8"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="8"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="8"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="8"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="8"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B137" s="8"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B138" s="8"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B139" s="8"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B140" s="8"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B141" s="8"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B142" s="8"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B143" s="8"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B144" s="8"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="8"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B146" s="8"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" s="8"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B148" s="8"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B149" s="8"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B150" s="8"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B151" s="8"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B152" s="8"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B153" s="8"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B154" s="8"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B155" s="8"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B156" s="8"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B157" s="8"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B158" s="8"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B159" s="8"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B160" s="8"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161" s="8"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162" s="8"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B163" s="8"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B164" s="8"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B165" s="8"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B166" s="8"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B167" s="8"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B168" s="8"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B169" s="8"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B170" s="8"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B171" s="8"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B172" s="8"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B173" s="8"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B174" s="8"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B175" s="8"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B176" s="8"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B177" s="8"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B178" s="8"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B179" s="8"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B180" s="8"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B181" s="8"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B182" s="8"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B183" s="8"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B184" s="8"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B185" s="8"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B186" s="8"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B187" s="8"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B188" s="8"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B189" s="8"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B190" s="8"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B191" s="8"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B192" s="8"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B193" s="8"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B194" s="8"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B195" s="8"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B196" s="8"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B197" s="8"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B198" s="8"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B199" s="8"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B200" s="8"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B201" s="8"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B202" s="8"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B203" s="8"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B204" s="8"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B205" s="8"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B206" s="8"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B207" s="8"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B208" s="8"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B209" s="8"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B210" s="8"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B211" s="8"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B212" s="8"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B213" s="8"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B214" s="8"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B215" s="8"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B216" s="8"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B217" s="8"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B218" s="8"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B219" s="8"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B220" s="8"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B221" s="8"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B222" s="8"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B223" s="8"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B224" s="8"/>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B225" s="8"/>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B226" s="8"/>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B227" s="8"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B228" s="8"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B229" s="8"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B230" s="8"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B231" s="8"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B232" s="8"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B233" s="8"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B234" s="8"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B235" s="8"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B236" s="8"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B237" s="8"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B238" s="8"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B239" s="8"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B240" s="8"/>
     </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B241" s="8"/>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B242" s="8"/>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B243" s="8"/>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B244" s="8"/>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B245" s="8"/>
     </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B246" s="8"/>
     </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B247" s="8"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B248" s="8"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B249" s="8"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B250" s="8"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B251" s="8"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B252" s="8"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B253" s="8"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B254" s="8"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B255" s="8"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B256" s="8"/>
     </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B257" s="8"/>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B258" s="8"/>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B259" s="8"/>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B260" s="8"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B261" s="8"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B262" s="8"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B263" s="8"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B264" s="8"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B265" s="8"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B266" s="8"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B267" s="8"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B268" s="8"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B269" s="8"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B270" s="8"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B271" s="8"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B272" s="8"/>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B273" s="8"/>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B274" s="8"/>
     </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B275" s="8"/>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B276" s="8"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B277" s="8"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B278" s="8"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B279" s="8"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B280" s="8"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B281" s="8"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B282" s="8"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B283" s="8"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B284" s="8"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B285" s="8"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B286" s="8"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B287" s="8"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B288" s="8"/>
     </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B289" s="8"/>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B290" s="8"/>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B291" s="8"/>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B292" s="8"/>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B293" s="8"/>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B294" s="8"/>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B295" s="8"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B296" s="8"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B297" s="8"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B298" s="8"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B299" s="8"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B300" s="8"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B301" s="8"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B302" s="8"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B303" s="8"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B304" s="8"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B305" s="8"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B306" s="8"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B307" s="8"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B308" s="8"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B309" s="8"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B310" s="8"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B311" s="8"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B312" s="8"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B313" s="8"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B314" s="8"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B315" s="8"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B316" s="8"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B317" s="8"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B318" s="8"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B319" s="8"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B320" s="8"/>
     </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B321" s="8"/>
     </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B322" s="8"/>
     </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B323" s="8"/>
     </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B324" s="8"/>
     </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B325" s="8"/>
     </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B326" s="8"/>
     </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B327" s="8"/>
     </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B328" s="8"/>
     </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B329" s="8"/>
     </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B330" s="8"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B331" s="8"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B332" s="8"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B333" s="8"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B334" s="8"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B335" s="8"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B336" s="8"/>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B338" s="8"/>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B339" s="8"/>
     </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B340" s="8"/>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B341" s="8"/>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B342" s="8"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B343" s="8"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B344" s="8"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B345" s="8"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B346" s="8"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B347" s="8"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B348" s="8"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B349" s="8"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B350" s="8"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B351" s="8"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B352" s="8"/>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B353" s="8"/>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B354" s="8"/>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B355" s="8"/>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B356" s="8"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B357" s="8"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B358" s="8"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B359" s="8"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B360" s="8"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B361" s="8"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B362" s="8"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B363" s="8"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B364" s="8"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B365" s="8"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B366" s="8"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B367" s="8"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B368" s="8"/>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B369" s="8"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B370" s="8"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B371" s="8"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B372" s="8"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B373" s="8"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B374" s="8"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B375" s="8"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B376" s="8"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B377" s="8"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B378" s="8"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B379" s="8"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B380" s="8"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B381" s="8"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B382" s="8"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B383" s="8"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B384" s="8"/>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B385" s="8"/>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B386" s="8"/>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B387" s="8"/>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B388" s="8"/>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B389" s="8"/>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B390" s="8"/>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B391" s="8"/>
     </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B392" s="8"/>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B393" s="8"/>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B394" s="8"/>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B395" s="8"/>
     </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B396" s="8"/>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B397" s="8"/>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B398" s="8"/>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B399" s="8"/>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B400" s="8"/>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B401" s="8"/>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B402" s="8"/>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B403" s="8"/>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B404" s="8"/>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B405" s="8"/>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B406" s="8"/>
     </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B407" s="8"/>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B408" s="8"/>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B409" s="8"/>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B410" s="8"/>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B411" s="8"/>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B412" s="8"/>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B413" s="8"/>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B414" s="8"/>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B415" s="8"/>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B416" s="8"/>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B417" s="8"/>
     </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B418" s="8"/>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B419" s="8"/>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B420" s="8"/>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B421" s="8"/>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B422" s="8"/>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B423" s="8"/>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B424" s="8"/>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B425" s="8"/>
     </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B426" s="8"/>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B427" s="8"/>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B428" s="8"/>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B429" s="8"/>
     </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B430" s="8"/>
     </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B431" s="8"/>
     </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B432" s="8"/>
     </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B433" s="8"/>
     </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B434" s="8"/>
     </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B435" s="8"/>
     </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B436" s="8"/>
     </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B437" s="8"/>
     </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B438" s="8"/>
     </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B439" s="8"/>
     </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B440" s="8"/>
     </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B441" s="8"/>
     </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B442" s="8"/>
     </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B443" s="8"/>
     </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B444" s="8"/>
     </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B445" s="8"/>
     </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B446" s="8"/>
     </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B447" s="8"/>
     </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B448" s="8"/>
     </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B449" s="8"/>
     </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B450" s="8"/>
     </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B451" s="8"/>
     </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B452" s="8"/>
     </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B453" s="8"/>
     </row>
-    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B454" s="8"/>
     </row>
-    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B455" s="8"/>
     </row>
-    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B456" s="8"/>
     </row>
-    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B457" s="8"/>
     </row>
-    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B458" s="8"/>
     </row>
-    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B459" s="8"/>
     </row>
-    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B460" s="8"/>
     </row>
-    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B461" s="8"/>
     </row>
-    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B462" s="8"/>
     </row>
-    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B463" s="8"/>
     </row>
-    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B464" s="8"/>
     </row>
-    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B465" s="8"/>
     </row>
-    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B466" s="8"/>
     </row>
-    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B467" s="8"/>
     </row>
-    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B468" s="8"/>
     </row>
-    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B469" s="8"/>
     </row>
-    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B470" s="8"/>
     </row>
-    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B471" s="8"/>
     </row>
-    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B472" s="8"/>
     </row>
-    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B473" s="8"/>
     </row>
-    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B474" s="8"/>
     </row>
-    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B475" s="8"/>
     </row>
-    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B476" s="8"/>
     </row>
-    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B477" s="8"/>
     </row>
-    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B478" s="8"/>
     </row>
-    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B479" s="8"/>
     </row>
-    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B480" s="8"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B481" s="8"/>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B482" s="8"/>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B483" s="8"/>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B484" s="8"/>
     </row>
-    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B485" s="8"/>
     </row>
-    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B486" s="8"/>
     </row>
-    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B487" s="8"/>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B488" s="8"/>
     </row>
-    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B489" s="8"/>
     </row>
-    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B490" s="8"/>
     </row>
-    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B491" s="8"/>
     </row>
-    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B492" s="8"/>
     </row>
-    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B493" s="8"/>
     </row>
-    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B494" s="8"/>
     </row>
-    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B495" s="8"/>
     </row>
-    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B496" s="8"/>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B497" s="8"/>
     </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B498" s="8"/>
     </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B499" s="8"/>
     </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B500" s="8"/>
     </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B501" s="8"/>
     </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B502" s="8"/>
     </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B503" s="8"/>
     </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B504" s="8"/>
     </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B505" s="8"/>
     </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B506" s="8"/>
     </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B507" s="8"/>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B508" s="8"/>
     </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B509" s="8"/>
     </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B510" s="8"/>
     </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B511" s="8"/>
     </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B512" s="8"/>
     </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B513" s="8"/>
     </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B514" s="8"/>
     </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B515" s="8"/>
     </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B516" s="8"/>
     </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B517" s="8"/>
     </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B518" s="8"/>
     </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B519" s="8"/>
     </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B520" s="8"/>
     </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B521" s="8"/>
     </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B522" s="8"/>
     </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B523" s="8"/>
     </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B524" s="8"/>
     </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B525" s="8"/>
     </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B526" s="8"/>
     </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B527" s="8"/>
     </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B528" s="8"/>
     </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B529" s="8"/>
     </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B530" s="8"/>
     </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B531" s="8"/>
     </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B532" s="8"/>
     </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B533" s="8"/>
     </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B534" s="8"/>
     </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B535" s="8"/>
     </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B536" s="8"/>
     </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B537" s="8"/>
     </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B538" s="8"/>
     </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B539" s="8"/>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B540" s="8"/>
     </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B541" s="8"/>
     </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B542" s="8"/>
     </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B543" s="8"/>
     </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B544" s="8"/>
     </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B545" s="8"/>
     </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B546" s="8"/>
     </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B547" s="8"/>
     </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B548" s="8"/>
     </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B549" s="8"/>
     </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B550" s="8"/>
     </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B551" s="8"/>
     </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B552" s="8"/>
     </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B553" s="8"/>
     </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B554" s="8"/>
     </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B555" s="8"/>
     </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B556" s="8"/>
     </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B557" s="8"/>
     </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B558" s="8"/>
     </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B559" s="8"/>
     </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B560" s="8"/>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B561" s="8"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B562" s="8"/>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B563" s="8"/>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B564" s="8"/>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B565" s="8"/>
     </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B566" s="8"/>
     </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B567" s="8"/>
     </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B568" s="8"/>
     </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B569" s="8"/>
     </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B570" s="8"/>
     </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B571" s="8"/>
     </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B572" s="8"/>
     </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B573" s="8"/>
     </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B574" s="8"/>
     </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B575" s="8"/>
     </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B576" s="8"/>
     </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B577" s="8"/>
     </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B578" s="8"/>
     </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B579" s="8"/>
     </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B580" s="8"/>
     </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B581" s="8"/>
     </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B582" s="8"/>
     </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B583" s="8"/>
     </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B584" s="8"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B585" s="8"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B586" s="8"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B587" s="8"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B588" s="8"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B589" s="8"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B590" s="8"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B591" s="8"/>
     </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B592" s="8"/>
     </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B593" s="8"/>
     </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B594" s="8"/>
     </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B595" s="8"/>
     </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B596" s="8"/>
     </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B597" s="8"/>
     </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B598" s="8"/>
     </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B599" s="8"/>
     </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B600" s="8"/>
     </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B601" s="8"/>
     </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B602" s="8"/>
     </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B603" s="8"/>
     </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B604" s="8"/>
     </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B605" s="8"/>
     </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B606" s="8"/>
     </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B607" s="8"/>
     </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B608" s="8"/>
     </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B609" s="8"/>
     </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B610" s="8"/>
     </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B611" s="8"/>
     </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B612" s="8"/>
     </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B613" s="8"/>
     </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B614" s="8"/>
     </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B615" s="8"/>
     </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B616" s="8"/>
     </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B617" s="8"/>
     </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B618" s="8"/>
     </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B619" s="8"/>
     </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B620" s="8"/>
     </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B621" s="8"/>
     </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B622" s="8"/>
     </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B623" s="8"/>
     </row>
-    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B624" s="8"/>
     </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B625" s="8"/>
     </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B626" s="8"/>
     </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B627" s="8"/>
     </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B628" s="8"/>
     </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B629" s="8"/>
     </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B630" s="8"/>
     </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B631" s="8"/>
     </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B632" s="8"/>
     </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B633" s="8"/>
     </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B634" s="8"/>
     </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B635" s="8"/>
     </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B636" s="8"/>
     </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B637" s="8"/>
     </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B638" s="8"/>
     </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B639" s="8"/>
     </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B640" s="8"/>
     </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B641" s="8"/>
     </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B642" s="8"/>
     </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B643" s="8"/>
     </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B644" s="8"/>
     </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B645" s="8"/>
     </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B646" s="8"/>
     </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B647" s="8"/>
     </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B648" s="8"/>
     </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B649" s="8"/>
     </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B650" s="8"/>
     </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B651" s="8"/>
     </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B652" s="8"/>
     </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B653" s="8"/>
     </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B654" s="8"/>
     </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B655" s="8"/>
     </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B656" s="8"/>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B657" s="8"/>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B658" s="8"/>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B659" s="8"/>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B660" s="8"/>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B661" s="8"/>
     </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B662" s="8"/>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B663" s="8"/>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B664" s="8"/>
     </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B665" s="8"/>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B666" s="8"/>
     </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B667" s="8"/>
     </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B668" s="8"/>
     </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B669" s="8"/>
     </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B670" s="8"/>
     </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B671" s="8"/>
     </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B672" s="8"/>
     </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B673" s="8"/>
     </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B674" s="8"/>
     </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B675" s="8"/>
     </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B676" s="8"/>
     </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B677" s="8"/>
     </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B678" s="8"/>
     </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B679" s="8"/>
     </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B680" s="8"/>
     </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B681" s="8"/>
     </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B682" s="8"/>
     </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B683" s="8"/>
     </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B684" s="8"/>
     </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B685" s="8"/>
     </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B686" s="8"/>
     </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B687" s="8"/>
     </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B688" s="8"/>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B689" s="8"/>
     </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B690" s="8"/>
     </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B691" s="8"/>
     </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B692" s="8"/>
     </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B693" s="8"/>
     </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B694" s="8"/>
     </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B695" s="8"/>
     </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B696" s="8"/>
     </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B697" s="8"/>
     </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B698" s="8"/>
     </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B699" s="8"/>
     </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B700" s="8"/>
     </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B701" s="8"/>
     </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B702" s="8"/>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B703" s="8"/>
     </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B704" s="8"/>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B705" s="8"/>
     </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B706" s="8"/>
     </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B707" s="8"/>
     </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B708" s="8"/>
     </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B709" s="8"/>
     </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B710" s="8"/>
     </row>
-    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B711" s="8"/>
     </row>
-    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B712" s="8"/>
     </row>
-    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B713" s="8"/>
     </row>
-    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B714" s="8"/>
     </row>
-    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B715" s="8"/>
     </row>
-    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B716" s="8"/>
     </row>
-    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B717" s="8"/>
     </row>
-    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B718" s="8"/>
     </row>
-    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B719" s="8"/>
     </row>
-    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B720" s="8"/>
     </row>
-    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B721" s="8"/>
     </row>
-    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B722" s="8"/>
     </row>
-    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B723" s="8"/>
     </row>
-    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B724" s="8"/>
     </row>
-    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B725" s="8"/>
     </row>
-    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B726" s="8"/>
     </row>
-    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B727" s="8"/>
     </row>
-    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B728" s="8"/>
     </row>
-    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B729" s="8"/>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B730" s="8"/>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B731" s="8"/>
     </row>
-    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B732" s="8"/>
     </row>
-    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B733" s="8"/>
     </row>
-    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B734" s="8"/>
     </row>
-    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B735" s="8"/>
     </row>
-    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B736" s="8"/>
     </row>
-    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B737" s="8"/>
     </row>
-    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B738" s="8"/>
     </row>
-    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B739" s="8"/>
     </row>
-    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B740" s="8"/>
     </row>
-    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B741" s="8"/>
     </row>
-    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B742" s="8"/>
     </row>
-    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B743" s="8"/>
     </row>
-    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B744" s="8"/>
     </row>
-    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B745" s="8"/>
     </row>
-    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B746" s="8"/>
     </row>
-    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B747" s="8"/>
     </row>
-    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B748" s="8"/>
     </row>
-    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B749" s="8"/>
     </row>
-    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B750" s="8"/>
     </row>
-    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B751" s="8"/>
     </row>
-    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B752" s="8"/>
     </row>
-    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B753" s="8"/>
     </row>
-    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B754" s="8"/>
     </row>
-    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B755" s="8"/>
     </row>
-    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B756" s="8"/>
     </row>
-    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B757" s="8"/>
     </row>
-    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B758" s="8"/>
     </row>
-    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B759" s="8"/>
     </row>
-    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B760" s="8"/>
     </row>
-    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B761" s="8"/>
     </row>
-    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B762" s="8"/>
     </row>
-    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B763" s="8"/>
     </row>
-    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B764" s="8"/>
     </row>
-    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B765" s="8"/>
     </row>
-    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B766" s="8"/>
     </row>
-    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B767" s="8"/>
     </row>
-    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B768" s="8"/>
     </row>
-    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B769" s="8"/>
     </row>
-    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B770" s="8"/>
     </row>
-    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B771" s="8"/>
     </row>
-    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B772" s="8"/>
     </row>
-    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B773" s="8"/>
     </row>
-    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B774" s="8"/>
     </row>
-    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B775" s="8"/>
     </row>
-    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B776" s="8"/>
     </row>
-    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B777" s="8"/>
     </row>
-    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B778" s="8"/>
     </row>
-    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B779" s="8"/>
     </row>
-    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B780" s="8"/>
     </row>
-    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B781" s="8"/>
     </row>
-    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B782" s="8"/>
     </row>
-    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B783" s="8"/>
     </row>
-    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B784" s="8"/>
     </row>
-    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B785" s="8"/>
     </row>
-    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B786" s="8"/>
     </row>
-    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B787" s="8"/>
     </row>
-    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B788" s="8"/>
     </row>
-    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B789" s="8"/>
     </row>
-    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B790" s="8"/>
     </row>
-    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B791" s="8"/>
     </row>
-    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B792" s="8"/>
     </row>
-    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B793" s="8"/>
     </row>
-    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B794" s="8"/>
     </row>
-    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B795" s="8"/>
     </row>
-    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B796" s="8"/>
     </row>
-    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B797" s="8"/>
     </row>
-    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B798" s="8"/>
     </row>
-    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B799" s="8"/>
     </row>
-    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B800" s="8"/>
     </row>
-    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B801" s="8"/>
     </row>
-    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B802" s="8"/>
     </row>
-    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B803" s="8"/>
     </row>
-    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B804" s="8"/>
     </row>
-    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B805" s="8"/>
     </row>
-    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B806" s="8"/>
     </row>
-    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B807" s="8"/>
     </row>
-    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B808" s="8"/>
     </row>
-    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B809" s="8"/>
     </row>
-    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B810" s="8"/>
     </row>
-    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B811" s="8"/>
     </row>
-    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B812" s="8"/>
     </row>
-    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B813" s="8"/>
     </row>
-    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B814" s="8"/>
     </row>
-    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B815" s="8"/>
     </row>
-    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B816" s="8"/>
     </row>
-    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B817" s="8"/>
     </row>
-    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B818" s="8"/>
     </row>
-    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B819" s="8"/>
     </row>
-    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B820" s="8"/>
     </row>
-    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B821" s="8"/>
     </row>
-    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B822" s="8"/>
     </row>
-    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B823" s="8"/>
     </row>
-    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B824" s="8"/>
     </row>
-    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B825" s="8"/>
     </row>
-    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B826" s="8"/>
     </row>
-    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B827" s="8"/>
     </row>
-    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B828" s="8"/>
     </row>
-    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B829" s="8"/>
     </row>
-    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B830" s="8"/>
     </row>
-    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B831" s="8"/>
     </row>
-    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B832" s="8"/>
     </row>
-    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B833" s="8"/>
     </row>
-    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B834" s="8"/>
     </row>
-    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B835" s="8"/>
     </row>
-    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B836" s="8"/>
     </row>
-    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B837" s="8"/>
     </row>
-    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B838" s="8"/>
     </row>
-    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B839" s="8"/>
     </row>
-    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B840" s="8"/>
     </row>
-    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B841" s="8"/>
     </row>
-    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B842" s="8"/>
     </row>
-    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B843" s="8"/>
     </row>
-    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B844" s="8"/>
     </row>
-    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B845" s="8"/>
     </row>
-    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B846" s="8"/>
     </row>
-    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B847" s="8"/>
     </row>
-    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B848" s="8"/>
     </row>
-    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B849" s="8"/>
     </row>
-    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B850" s="8"/>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B851" s="8"/>
     </row>
-    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B852" s="8"/>
     </row>
-    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B853" s="8"/>
     </row>
-    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B854" s="8"/>
     </row>
-    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B855" s="8"/>
     </row>
-    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B856" s="8"/>
     </row>
-    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B857" s="8"/>
     </row>
-    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B858" s="8"/>
     </row>
-    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B859" s="8"/>
     </row>
-    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B860" s="8"/>
     </row>
-    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B861" s="8"/>
     </row>
-    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B862" s="8"/>
     </row>
-    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B863" s="8"/>
     </row>
-    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B864" s="8"/>
     </row>
-    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B865" s="8"/>
     </row>
-    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B866" s="8"/>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B867" s="8"/>
     </row>
-    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B868" s="8"/>
     </row>
-    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B869" s="8"/>
     </row>
-    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B870" s="8"/>
     </row>
-    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B871" s="8"/>
     </row>
-    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B872" s="8"/>
     </row>
-    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B873" s="8"/>
     </row>
-    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B874" s="8"/>
     </row>
-    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B875" s="8"/>
     </row>
-    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B876" s="8"/>
     </row>
-    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B877" s="8"/>
     </row>
-    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B878" s="8"/>
     </row>
-    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B879" s="8"/>
     </row>
-    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B880" s="8"/>
     </row>
-    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B881" s="8"/>
     </row>
-    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B882" s="8"/>
     </row>
-    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B883" s="8"/>
     </row>
-    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B884" s="8"/>
     </row>
-    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B885" s="8"/>
     </row>
-    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B886" s="8"/>
     </row>
-    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B887" s="8"/>
     </row>
-    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B888" s="8"/>
     </row>
-    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B889" s="8"/>
     </row>
-    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B890" s="8"/>
     </row>
-    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B891" s="8"/>
     </row>
-    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B892" s="8"/>
     </row>
-    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B893" s="8"/>
     </row>
-    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B894" s="8"/>
     </row>
-    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B895" s="8"/>
     </row>
-    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B896" s="8"/>
     </row>
-    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B897" s="8"/>
     </row>
-    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B898" s="8"/>
     </row>
-    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B899" s="8"/>
     </row>
-    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B900" s="8"/>
     </row>
-    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B901" s="8"/>
     </row>
-    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B902" s="8"/>
     </row>
-    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B903" s="8"/>
     </row>
-    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B904" s="8"/>
     </row>
-    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B905" s="8"/>
     </row>
-    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B906" s="8"/>
     </row>
-    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B907" s="8"/>
     </row>
-    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B908" s="8"/>
     </row>
-    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B909" s="8"/>
     </row>
-    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B910" s="8"/>
     </row>
-    <row r="911" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B911" s="8"/>
     </row>
-    <row r="912" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B912" s="8"/>
     </row>
-    <row r="913" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B913" s="8"/>
     </row>
-    <row r="914" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B914" s="8"/>
     </row>
-    <row r="915" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B915" s="8"/>
     </row>
-    <row r="916" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B916" s="8"/>
     </row>
-    <row r="917" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B917" s="8"/>
     </row>
-    <row r="918" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B918" s="8"/>
     </row>
-    <row r="919" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B919" s="8"/>
     </row>
-    <row r="920" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B920" s="8"/>
     </row>
-    <row r="921" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B921" s="8"/>
     </row>
-    <row r="922" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B922" s="8"/>
     </row>
-    <row r="923" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B923" s="8"/>
     </row>
-    <row r="924" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B924" s="8"/>
     </row>
-    <row r="925" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B925" s="8"/>
     </row>
-    <row r="926" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B926" s="8"/>
     </row>
-    <row r="927" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B927" s="8"/>
     </row>
-    <row r="928" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B928" s="8"/>
     </row>
-    <row r="929" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B929" s="8"/>
     </row>
-    <row r="930" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B930" s="8"/>
     </row>
-    <row r="931" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B931" s="8"/>
     </row>
-    <row r="932" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B932" s="8"/>
     </row>
-    <row r="933" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B933" s="8"/>
     </row>
-    <row r="934" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B934" s="8"/>
     </row>
-    <row r="935" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B935" s="8"/>
     </row>
-    <row r="936" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B936" s="8"/>
     </row>
-    <row r="937" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B937" s="8"/>
     </row>
-    <row r="938" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B938" s="8"/>
     </row>
-    <row r="939" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B939" s="8"/>
     </row>
-    <row r="940" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B940" s="8"/>
     </row>
-    <row r="941" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B941" s="8"/>
     </row>
-    <row r="942" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B942" s="8"/>
     </row>
-    <row r="943" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B943" s="8"/>
     </row>
-    <row r="944" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B944" s="8"/>
     </row>
-    <row r="945" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B945" s="8"/>
     </row>
-    <row r="946" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B946" s="8"/>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B947" s="8"/>
     </row>
-    <row r="948" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B948" s="8"/>
     </row>
-    <row r="949" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B949" s="8"/>
     </row>
-    <row r="950" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B950" s="8"/>
     </row>
-    <row r="951" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B951" s="8"/>
     </row>
-    <row r="952" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B952" s="8"/>
     </row>
-    <row r="953" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B953" s="8"/>
     </row>
-    <row r="954" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B954" s="8"/>
     </row>
-    <row r="955" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B955" s="8"/>
     </row>
-    <row r="956" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B956" s="8"/>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B957" s="8"/>
     </row>
-    <row r="958" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B958" s="8"/>
     </row>
-    <row r="959" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B959" s="8"/>
     </row>
-    <row r="960" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B960" s="8"/>
     </row>
-    <row r="961" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B961" s="8"/>
     </row>
-    <row r="962" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B962" s="8"/>
     </row>
-    <row r="963" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B963" s="8"/>
     </row>
-    <row r="964" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B964" s="8"/>
     </row>
-    <row r="965" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B965" s="8"/>
     </row>
-    <row r="966" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B966" s="8"/>
     </row>
-    <row r="967" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B967" s="8"/>
     </row>
-    <row r="968" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B968" s="8"/>
     </row>
-    <row r="969" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B969" s="8"/>
     </row>
-    <row r="970" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B970" s="8"/>
     </row>
-    <row r="971" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B971" s="8"/>
     </row>
-    <row r="972" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B972" s="8"/>
     </row>
-    <row r="973" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B973" s="8"/>
     </row>
-    <row r="974" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B974" s="8"/>
     </row>
-    <row r="975" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B975" s="8"/>
     </row>
-    <row r="976" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B976" s="8"/>
     </row>
-    <row r="977" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B977" s="8"/>
     </row>
-    <row r="978" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B978" s="8"/>
     </row>
-    <row r="979" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B979" s="8"/>
     </row>
-    <row r="980" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B980" s="8"/>
     </row>
-    <row r="981" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B981" s="8"/>
     </row>
-    <row r="982" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B982" s="8"/>
     </row>
-    <row r="983" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B983" s="8"/>
     </row>
-    <row r="984" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B984" s="8"/>
     </row>
-    <row r="985" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B985" s="8"/>
     </row>
-    <row r="986" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B986" s="8"/>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B987" s="8"/>
     </row>
-    <row r="988" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B988" s="8"/>
     </row>
-    <row r="989" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B989" s="8"/>
     </row>
-    <row r="990" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B990" s="8"/>
     </row>
-    <row r="991" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B991" s="8"/>
     </row>
-    <row r="992" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B992" s="8"/>
     </row>
-    <row r="993" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B993" s="8"/>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B994" s="8"/>
     </row>
-    <row r="995" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B995" s="8"/>
     </row>
-    <row r="996" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B996" s="8"/>
     </row>
-    <row r="997" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B997" s="8"/>
     </row>
-    <row r="998" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B998" s="8"/>
     </row>
-    <row r="999" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B999" s="8"/>
     </row>
-    <row r="1000" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1000" s="8"/>
     </row>
-    <row r="1001" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1001" s="8"/>
     </row>
-    <row r="1002" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1002" s="8"/>
     </row>
-    <row r="1003" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1003" s="8"/>
     </row>
-    <row r="1004" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1004" s="8"/>
     </row>
-    <row r="1005" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1005" s="8"/>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1006" s="8"/>
     </row>
-    <row r="1007" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1007" s="8"/>
     </row>
-    <row r="1008" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1008" s="8"/>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1009" s="8"/>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1010" s="8"/>
     </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1011" s="8"/>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1012" s="8"/>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1013" s="8"/>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1014" s="8"/>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1015" s="8"/>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1016" s="8"/>
     </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1017" s="8"/>
     </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1018" s="8"/>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1019" s="8"/>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1020" s="8"/>
     </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1021" s="8"/>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1022" s="8"/>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1023" s="8"/>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1024" s="8"/>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1025" s="8"/>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1026" s="8"/>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1027" s="8"/>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1028" s="8"/>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1029" s="8"/>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1030" s="8"/>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1031" s="8"/>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1032" s="8"/>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1033" s="8"/>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1034" s="8"/>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1035" s="8"/>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1036" s="8"/>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1037" s="8"/>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1038" s="8"/>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1039" s="8"/>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1040" s="8"/>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1041" s="8"/>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1042" s="8"/>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1043" s="8"/>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1044" s="8"/>
     </row>
-    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1045" s="8"/>
     </row>
-    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1046" s="8"/>
     </row>
-    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1047" s="8"/>
     </row>
-    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1048" s="8"/>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1049" s="8"/>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1050" s="8"/>
     </row>
-    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1051" s="8"/>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1052" s="8"/>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1053" s="8"/>
     </row>
-    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1054" s="8"/>
     </row>
-    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1055" s="8"/>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1056" s="8"/>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1057" s="8"/>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1058" s="8"/>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1059" s="8"/>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1060" s="8"/>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1061" s="8"/>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1062" s="8"/>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1063" s="8"/>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1064" s="8"/>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1065" s="8"/>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1066" s="8"/>
     </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1067" s="8"/>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1068" s="8"/>
     </row>
-    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1069" s="8"/>
     </row>
-    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1070" s="8"/>
     </row>
-    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1071" s="8"/>
     </row>
-    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1072" s="8"/>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1073" s="8"/>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1074" s="8"/>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1075" s="8"/>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1076" s="8"/>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1077" s="8"/>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1078" s="8"/>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1079" s="8"/>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1080" s="8"/>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1081" s="8"/>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1082" s="8"/>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1083" s="8"/>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1084" s="8"/>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1085" s="8"/>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1086" s="8"/>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1087" s="8"/>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1088" s="8"/>
     </row>
-    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1089" s="8"/>
     </row>
-    <row r="1090" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1090" s="8"/>
     </row>
-    <row r="1091" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1091" s="8"/>
     </row>
-    <row r="1092" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1092" s="8"/>
     </row>
-    <row r="1093" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1093" s="8"/>
     </row>
-    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1094" s="8"/>
     </row>
-    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1095" s="8"/>
     </row>
-    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1096" s="8"/>
     </row>
-    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1097" s="8"/>
     </row>
-    <row r="1098" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1098" s="8"/>
     </row>
-    <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1099" s="8"/>
     </row>
-    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1100" s="8"/>
     </row>
-    <row r="1101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1101" s="8"/>
     </row>
-    <row r="1102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1102" s="8"/>
     </row>
-    <row r="1103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1103" s="8"/>
     </row>
-    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1104" s="8"/>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1105" s="8"/>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1106" s="8"/>
     </row>
-    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1107" s="8"/>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1108" s="8"/>
     </row>
-    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1109" s="8"/>
     </row>
-    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1110" s="8"/>
     </row>
-    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1111" s="8"/>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1112" s="8"/>
     </row>
-    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1113" s="8"/>
     </row>
-    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1114" s="8"/>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1115" s="8"/>
     </row>
-    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1116" s="8"/>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1117" s="8"/>
     </row>
-    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1118" s="8"/>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1119" s="8"/>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1120" s="8"/>
     </row>
-    <row r="1121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1121" s="8"/>
     </row>
-    <row r="1122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1122" s="8"/>
     </row>
-    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1123" s="8"/>
     </row>
-    <row r="1124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1124" s="8"/>
     </row>
-    <row r="1125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1125" s="8"/>
     </row>
-    <row r="1126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1126" s="8"/>
     </row>
-    <row r="1127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1127" s="8"/>
     </row>
-    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1128" s="8"/>
     </row>
-    <row r="1129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1129" s="8"/>
     </row>
-    <row r="1130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1130" s="8"/>
     </row>
-    <row r="1131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1131" s="8"/>
     </row>
-    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1132" s="8"/>
     </row>
-    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1133" s="8"/>
     </row>
-    <row r="1134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1134" s="8"/>
     </row>
-    <row r="1135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1135" s="8"/>
     </row>
-    <row r="1136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1136" s="8"/>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1137" s="8"/>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1138" s="8"/>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1139" s="8"/>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1140" s="8"/>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1141" s="8"/>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1142" s="8"/>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1143" s="8"/>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1144" s="8"/>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1145" s="8"/>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1146" s="8"/>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1147" s="8"/>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1148" s="8"/>
     </row>
-    <row r="1149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1149" s="8"/>
     </row>
-    <row r="1150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1150" s="8"/>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1151" s="8"/>
     </row>
-    <row r="1152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1152" s="8"/>
     </row>
-    <row r="1153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1153" s="8"/>
     </row>
-    <row r="1154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1154" s="8"/>
     </row>
-    <row r="1155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1155" s="8"/>
     </row>
-    <row r="1156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1156" s="8"/>
     </row>
-    <row r="1157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1157" s="8"/>
     </row>
-    <row r="1158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1158" s="8"/>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1159" s="8"/>
     </row>
-    <row r="1160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1160" s="8"/>
     </row>
-    <row r="1161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1161" s="8"/>
     </row>
-    <row r="1162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1162" s="8"/>
     </row>
-    <row r="1163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1163" s="8"/>
     </row>
-    <row r="1164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1164" s="8"/>
     </row>
-    <row r="1165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1165" s="8"/>
     </row>
-    <row r="1166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1166" s="8"/>
     </row>
-    <row r="1167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1167" s="8"/>
     </row>
-    <row r="1168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1168" s="8"/>
     </row>
-    <row r="1169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1169" s="8"/>
     </row>
-    <row r="1170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1170" s="8"/>
     </row>
-    <row r="1171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1171" s="8"/>
     </row>
-    <row r="1172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1172" s="8"/>
     </row>
-    <row r="1173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1173" s="8"/>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1174" s="8"/>
     </row>
-    <row r="1175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1175" s="8"/>
     </row>
-    <row r="1176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1176" s="8"/>
     </row>
-    <row r="1177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1177" s="8"/>
     </row>
-    <row r="1178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1178" s="8"/>
     </row>
-    <row r="1179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1179" s="8"/>
     </row>
-    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1180" s="8"/>
     </row>
-    <row r="1181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1181" s="8"/>
     </row>
-    <row r="1182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1182" s="8"/>
     </row>
-    <row r="1183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1183" s="8"/>
     </row>
-    <row r="1184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1184" s="8"/>
     </row>
-    <row r="1185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1185" s="8"/>
     </row>
-    <row r="1186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1186" s="8"/>
     </row>
-    <row r="1187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1187" s="8"/>
     </row>
-    <row r="1188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1188" s="8"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1189" s="8"/>
     </row>
-    <row r="1190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1190" s="8"/>
     </row>
-    <row r="1191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1191" s="8"/>
     </row>
-    <row r="1192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1192" s="8"/>
     </row>
-    <row r="1193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1193" s="8"/>
     </row>
-    <row r="1194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1194" s="8"/>
     </row>
-    <row r="1195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1195" s="8"/>
     </row>
-    <row r="1196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1196" s="8"/>
     </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1197" s="8"/>
     </row>
-    <row r="1198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1198" s="8"/>
     </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1199" s="8"/>
     </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1200" s="8"/>
     </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1201" s="8"/>
     </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1202" s="8"/>
     </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1203" s="8"/>
     </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1204" s="8"/>
     </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1205" s="8"/>
     </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1206" s="8"/>
     </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1207" s="8"/>
     </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1208" s="8"/>
     </row>
-    <row r="1209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1209" s="8"/>
     </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1210" s="8"/>
     </row>
-    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1211" s="8"/>
     </row>
-    <row r="1212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1212" s="8"/>
     </row>
-    <row r="1213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1213" s="8"/>
     </row>
-    <row r="1214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1214" s="8"/>
     </row>
-    <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1215" s="8"/>
     </row>
-    <row r="1216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1216" s="8"/>
     </row>
-    <row r="1217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1217" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1217" s="8"/>
     </row>
-    <row r="1218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1218" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1218" s="8"/>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1219" s="8"/>
     </row>
-    <row r="1220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1220" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1220" s="8"/>
     </row>
-    <row r="1221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1221" s="8"/>
     </row>
-    <row r="1222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1222" s="8"/>
     </row>
-    <row r="1223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1223" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1223" s="8"/>
     </row>
-    <row r="1224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1224" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1224" s="8"/>
     </row>
-    <row r="1225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1225" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1225" s="8"/>
     </row>
-    <row r="1226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1226" s="8"/>
     </row>
-    <row r="1227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1227" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1227" s="8"/>
     </row>
-    <row r="1228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1228" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1228" s="8"/>
     </row>
-    <row r="1229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1229" s="8"/>
     </row>
-    <row r="1230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1230" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1230" s="8"/>
     </row>
-    <row r="1231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1231" s="8"/>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1232" s="8"/>
     </row>
-    <row r="1233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1233" s="8"/>
     </row>
-    <row r="1234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1234" s="8"/>
     </row>
-    <row r="1235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1235" s="8"/>
     </row>
-    <row r="1236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1236" s="8"/>
     </row>
-    <row r="1237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1237" s="8"/>
     </row>
-    <row r="1238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1238" s="8"/>
     </row>
-    <row r="1239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1239" s="8"/>
     </row>
-    <row r="1240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1240" s="8"/>
     </row>
-    <row r="1241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1241" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1241" s="8"/>
     </row>
-    <row r="1242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1242" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1242" s="8"/>
     </row>
-    <row r="1243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1243" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1243" s="8"/>
     </row>
-    <row r="1244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1244" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1244" s="8"/>
     </row>
-    <row r="1245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1245" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1245" s="8"/>
     </row>
-    <row r="1246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1246" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1246" s="8"/>
     </row>
-    <row r="1247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1247" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1247" s="8"/>
     </row>
-    <row r="1248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1248" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1248" s="8"/>
     </row>
-    <row r="1249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1249" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1249" s="8"/>
     </row>
-    <row r="1250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1250" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1250" s="8"/>
     </row>
-    <row r="1251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1251" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1251" s="8"/>
     </row>
-    <row r="1252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1252" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1252" s="8"/>
     </row>
-    <row r="1253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1253" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1253" s="8"/>
     </row>
-    <row r="1254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1254" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1254" s="8"/>
     </row>
-    <row r="1255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1255" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1255" s="8"/>
     </row>
-    <row r="1256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1256" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1256" s="8"/>
     </row>
-    <row r="1257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1257" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1257" s="8"/>
     </row>
-    <row r="1258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1258" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1258" s="8"/>
     </row>
-    <row r="1259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1259" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1259" s="8"/>
     </row>
-    <row r="1260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1260" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1260" s="8"/>
     </row>
-    <row r="1261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1261" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1261" s="8"/>
     </row>
-    <row r="1262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1262" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1262" s="8"/>
     </row>
-    <row r="1263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1263" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1263" s="8"/>
     </row>
-    <row r="1264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1264" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1264" s="8"/>
     </row>
-    <row r="1265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1265" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1265" s="8"/>
     </row>
-    <row r="1266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1266" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1266" s="8"/>
     </row>
-    <row r="1267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1267" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1267" s="8"/>
     </row>
-    <row r="1268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1268" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1268" s="8"/>
     </row>
-    <row r="1269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1269" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1269" s="8"/>
     </row>
-    <row r="1270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1270" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1270" s="8"/>
     </row>
-    <row r="1271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1271" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1271" s="8"/>
     </row>
-    <row r="1272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1272" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1272" s="8"/>
     </row>
-    <row r="1273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1273" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1273" s="8"/>
     </row>
-    <row r="1274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1274" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1274" s="8"/>
     </row>
-    <row r="1275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1275" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1275" s="8"/>
     </row>
-    <row r="1276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1276" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1276" s="8"/>
     </row>
-    <row r="1277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1277" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1277" s="8"/>
     </row>
-    <row r="1278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1278" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1278" s="8"/>
     </row>
-    <row r="1279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1279" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1279" s="8"/>
     </row>
-    <row r="1280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1280" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1280" s="8"/>
     </row>
-    <row r="1281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1281" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1281" s="8"/>
     </row>
-    <row r="1282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1282" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1282" s="8"/>
     </row>
-    <row r="1283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1283" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1283" s="8"/>
     </row>
-    <row r="1284" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1284" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1284" s="8"/>
     </row>
-    <row r="1285" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1285" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1285" s="8"/>
     </row>
-    <row r="1286" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1286" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1286" s="8"/>
     </row>
-    <row r="1287" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1287" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1287" s="8"/>
     </row>
-    <row r="1288" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1288" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1288" s="8"/>
     </row>
-    <row r="1289" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1289" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1289" s="8"/>
     </row>
-    <row r="1290" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1290" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1290" s="8"/>
     </row>
-    <row r="1291" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1291" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1291" s="8"/>
     </row>
-    <row r="1292" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1292" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1292" s="8"/>
     </row>
-    <row r="1293" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1293" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1293" s="8"/>
     </row>
-    <row r="1294" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1294" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1294" s="8"/>
     </row>
-    <row r="1295" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1295" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1295" s="8"/>
     </row>
-    <row r="1296" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1296" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1296" s="8"/>
     </row>
-    <row r="1297" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1297" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1297" s="8"/>
     </row>
-    <row r="1298" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1298" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1298" s="8"/>
     </row>
-    <row r="1299" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1299" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1299" s="8"/>
     </row>
-    <row r="1300" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1300" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1300" s="8"/>
     </row>
-    <row r="1301" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1301" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1301" s="8"/>
     </row>
-    <row r="1302" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1302" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1302" s="8"/>
     </row>
-    <row r="1303" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1303" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1303" s="8"/>
     </row>
-    <row r="1304" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1304" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1304" s="8"/>
     </row>
-    <row r="1305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1305" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1305" s="8"/>
     </row>
-    <row r="1306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1306" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1306" s="8"/>
     </row>
-    <row r="1307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1307" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1307" s="8"/>
     </row>
-    <row r="1308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1308" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1308" s="8"/>
     </row>
-    <row r="1309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1309" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1309" s="8"/>
     </row>
-    <row r="1310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1310" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1310" s="8"/>
     </row>
-    <row r="1311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1311" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1311" s="8"/>
     </row>
-    <row r="1312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1312" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1312" s="8"/>
     </row>
-    <row r="1313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1313" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1313" s="8"/>
     </row>
-    <row r="1314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1314" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1314" s="8"/>
     </row>
-    <row r="1315" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1315" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1315" s="8"/>
     </row>
-    <row r="1316" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1316" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1316" s="8"/>
     </row>
-    <row r="1317" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1317" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1317" s="8"/>
     </row>
-    <row r="1318" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1318" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1318" s="8"/>
     </row>
-    <row r="1319" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1319" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1319" s="8"/>
     </row>
-    <row r="1320" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1320" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1320" s="8"/>
     </row>
-    <row r="1321" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1321" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1321" s="8"/>
     </row>
-    <row r="1322" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1322" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1322" s="8"/>
     </row>
-    <row r="1323" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1323" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1323" s="8"/>
     </row>
-    <row r="1324" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1324" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1324" s="8"/>
     </row>
-    <row r="1325" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1325" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1325" s="8"/>
     </row>
-    <row r="1326" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1326" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1326" s="8"/>
     </row>
-    <row r="1327" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1327" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1327" s="8"/>
     </row>
-    <row r="1328" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1328" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1328" s="8"/>
     </row>
-    <row r="1329" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1329" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1329" s="8"/>
     </row>
-    <row r="1330" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1330" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1330" s="8"/>
     </row>
-    <row r="1331" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1331" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1331" s="8"/>
     </row>
-    <row r="1332" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1332" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1332" s="8"/>
     </row>
-    <row r="1333" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1333" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1333" s="8"/>
     </row>
-    <row r="1334" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1334" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1334" s="8"/>
     </row>
-    <row r="1335" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1335" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1335" s="8"/>
     </row>
-    <row r="1336" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1336" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1336" s="8"/>
     </row>
-    <row r="1337" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1337" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1337" s="8"/>
     </row>
-    <row r="1338" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1338" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1338" s="8"/>
     </row>
-    <row r="1339" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1339" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1339" s="8"/>
     </row>
-    <row r="1340" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1340" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1340" s="8"/>
     </row>
-    <row r="1341" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1341" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1341" s="8"/>
     </row>
-    <row r="1342" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1342" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1342" s="8"/>
     </row>
-    <row r="1343" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1343" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1343" s="8"/>
     </row>
-    <row r="1344" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1344" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1344" s="8"/>
     </row>
-    <row r="1345" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1345" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1345" s="8"/>
     </row>
-    <row r="1346" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1346" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1346" s="8"/>
     </row>
-    <row r="1347" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1347" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1347" s="8"/>
     </row>
-    <row r="1348" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1348" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1348" s="8"/>
     </row>
-    <row r="1349" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1349" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1349" s="8"/>
     </row>
-    <row r="1350" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1350" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1350" s="8"/>
     </row>
-    <row r="1351" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1351" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1351" s="8"/>
     </row>
-    <row r="1352" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1352" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1352" s="8"/>
     </row>
-    <row r="1353" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1353" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1353" s="8"/>
     </row>
-    <row r="1354" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1354" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1354" s="8"/>
     </row>
-    <row r="1355" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1355" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1355" s="8"/>
     </row>
-    <row r="1356" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1356" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1356" s="8"/>
     </row>
-    <row r="1357" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1357" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1357" s="8"/>
     </row>
-    <row r="1358" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1358" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1358" s="8"/>
     </row>
-    <row r="1359" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1359" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1359" s="8"/>
     </row>
-    <row r="1360" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1360" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1360" s="8"/>
     </row>
-    <row r="1361" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1361" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1361" s="8"/>
     </row>
-    <row r="1362" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1362" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1362" s="8"/>
     </row>
-    <row r="1363" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1363" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1363" s="8"/>
     </row>
-    <row r="1364" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1364" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1364" s="8"/>
     </row>
-    <row r="1365" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1365" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1365" s="8"/>
     </row>
-    <row r="1366" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1366" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1366" s="8"/>
     </row>
-    <row r="1367" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1367" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1367" s="8"/>
     </row>
-    <row r="1368" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1368" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1368" s="8"/>
     </row>
-    <row r="1369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1369" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1369" s="8"/>
     </row>
-    <row r="1370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1370" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1370" s="8"/>
     </row>
-    <row r="1371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1371" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1371" s="8"/>
     </row>
-    <row r="1372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1372" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1372" s="8"/>
     </row>
-    <row r="1373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1373" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1373" s="8"/>
     </row>
-    <row r="1374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1374" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1374" s="8"/>
     </row>
-    <row r="1375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1375" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1375" s="8"/>
     </row>
-    <row r="1376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1376" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1376" s="8"/>
     </row>
-    <row r="1377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1377" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1377" s="8"/>
     </row>
-    <row r="1378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1378" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1378" s="8"/>
     </row>
-    <row r="1379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1379" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1379" s="8"/>
     </row>
-    <row r="1380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1380" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1380" s="8"/>
     </row>
-    <row r="1381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1381" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1381" s="8"/>
     </row>
-    <row r="1382" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1382" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1382" s="8"/>
     </row>
-    <row r="1383" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1383" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1383" s="8"/>
     </row>
-    <row r="1384" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1384" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1384" s="8"/>
     </row>
-    <row r="1385" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1385" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1385" s="8"/>
     </row>
-    <row r="1386" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1386" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1386" s="8"/>
     </row>
-    <row r="1387" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1387" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1387" s="8"/>
     </row>
-    <row r="1388" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1388" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1388" s="8"/>
     </row>
-    <row r="1389" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1389" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1389" s="8"/>
     </row>
-    <row r="1390" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1390" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1390" s="8"/>
     </row>
-    <row r="1391" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1391" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1391" s="8"/>
     </row>
-    <row r="1392" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1392" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1392" s="8"/>
     </row>
-    <row r="1393" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1393" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1393" s="8"/>
     </row>
-    <row r="1394" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1394" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1394" s="8"/>
     </row>
-    <row r="1395" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1395" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1395" s="8"/>
     </row>
-    <row r="1396" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1396" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1396" s="8"/>
     </row>
-    <row r="1397" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1397" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1397" s="8"/>
     </row>
-    <row r="1398" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1398" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1398" s="8"/>
     </row>
-    <row r="1399" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1399" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1399" s="8"/>
     </row>
-    <row r="1400" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1400" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1400" s="8"/>
     </row>
-    <row r="1401" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1401" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1401" s="8"/>
     </row>
-    <row r="1402" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1402" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1402" s="8"/>
     </row>
-    <row r="1403" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1403" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1403" s="8"/>
     </row>
-    <row r="1404" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1404" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1404" s="8"/>
     </row>
-    <row r="1405" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1405" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1405" s="8"/>
     </row>
-    <row r="1406" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1406" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1406" s="8"/>
     </row>
-    <row r="1407" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1407" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1407" s="8"/>
     </row>
-    <row r="1408" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1408" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1408" s="8"/>
     </row>
-    <row r="1409" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1409" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1409" s="8"/>
     </row>
-    <row r="1410" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1410" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1410" s="8"/>
     </row>
-    <row r="1411" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1411" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1411" s="8"/>
     </row>
-    <row r="1412" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1412" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1412" s="8"/>
     </row>
-    <row r="1413" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1413" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1413" s="8"/>
     </row>
-    <row r="1414" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1414" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1414" s="8"/>
     </row>
-    <row r="1415" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1415" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1415" s="8"/>
     </row>
-    <row r="1416" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1416" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1416" s="8"/>
     </row>
-    <row r="1417" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1417" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1417" s="8"/>
     </row>
-    <row r="1418" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1418" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1418" s="8"/>
     </row>
-    <row r="1419" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1419" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1419" s="8"/>
     </row>
-    <row r="1420" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1420" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1420" s="8"/>
     </row>
-    <row r="1421" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1421" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1421" s="8"/>
     </row>
-    <row r="1422" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1422" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1422" s="8"/>
     </row>
-    <row r="1423" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1423" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1423" s="8"/>
     </row>
-    <row r="1424" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1424" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1424" s="8"/>
     </row>
-    <row r="1425" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1425" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1425" s="8"/>
     </row>
-    <row r="1426" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1426" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1426" s="8"/>
     </row>
-    <row r="1427" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1427" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1427" s="8"/>
     </row>
-    <row r="1428" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1428" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1428" s="8"/>
     </row>
-    <row r="1429" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1429" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1429" s="8"/>
     </row>
-    <row r="1430" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1430" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1430" s="8"/>
     </row>
-    <row r="1431" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1431" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1431" s="8"/>
     </row>
-    <row r="1432" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1432" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1432" s="8"/>
     </row>
-    <row r="1433" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1433" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1433" s="8"/>
     </row>
-    <row r="1434" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1434" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1434" s="8"/>
     </row>
-    <row r="1435" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1435" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1435" s="8"/>
     </row>
-    <row r="1436" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1436" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1436" s="8"/>
     </row>
-    <row r="1437" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1437" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1437" s="8"/>
     </row>
-    <row r="1438" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1438" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1438" s="8"/>
     </row>
-    <row r="1439" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1439" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1439" s="8"/>
     </row>
-    <row r="1440" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1440" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1440" s="8"/>
     </row>
-    <row r="1441" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1441" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1441" s="8"/>
     </row>
-    <row r="1442" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1442" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1442" s="8"/>
     </row>
-    <row r="1443" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1443" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1443" s="8"/>
     </row>
-    <row r="1444" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1444" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1444" s="8"/>
     </row>
-    <row r="1445" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1445" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1445" s="8"/>
     </row>
-    <row r="1446" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1446" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1446" s="8"/>
     </row>
-    <row r="1447" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1447" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1447" s="8"/>
     </row>
-    <row r="1448" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1448" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1448" s="8"/>
     </row>
-    <row r="1449" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1449" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1449" s="8"/>
     </row>
-    <row r="1450" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1450" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1450" s="8"/>
     </row>
-    <row r="1451" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1451" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1451" s="8"/>
     </row>
-    <row r="1452" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1452" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1452" s="8"/>
     </row>
-    <row r="1453" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1453" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1453" s="8"/>
     </row>
-    <row r="1454" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1454" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1454" s="8"/>
     </row>
-    <row r="1455" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1455" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1455" s="8"/>
     </row>
-    <row r="1456" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1456" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1456" s="8"/>
     </row>
-    <row r="1457" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1457" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1457" s="8"/>
     </row>
-    <row r="1458" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1458" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1458" s="8"/>
     </row>
-    <row r="1459" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1459" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1459" s="8"/>
     </row>
-    <row r="1460" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1460" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1460" s="8"/>
     </row>
-    <row r="1461" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1461" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1461" s="8"/>
     </row>
-    <row r="1462" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1462" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1462" s="8"/>
     </row>
-    <row r="1463" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1463" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1463" s="8"/>
     </row>
-    <row r="1464" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1464" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1464" s="8"/>
     </row>
-    <row r="1465" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1465" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1465" s="8"/>
     </row>
-    <row r="1466" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1466" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1466" s="8"/>
     </row>
-    <row r="1467" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1467" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1467" s="8"/>
     </row>
-    <row r="1468" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1468" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1468" s="8"/>
     </row>
-    <row r="1469" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1469" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1469" s="8"/>
     </row>
-    <row r="1470" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1470" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1470" s="8"/>
     </row>
-    <row r="1471" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1471" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1471" s="8"/>
     </row>
-    <row r="1472" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1472" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1472" s="8"/>
     </row>
-    <row r="1473" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1473" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1473" s="8"/>
     </row>
-    <row r="1474" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1474" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1474" s="8"/>
     </row>
-    <row r="1475" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1475" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1475" s="8"/>
     </row>
-    <row r="1476" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1476" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1476" s="8"/>
     </row>
-    <row r="1477" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1477" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1477" s="8"/>
     </row>
-    <row r="1478" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1478" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1478" s="8"/>
     </row>
-    <row r="1479" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1479" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1479" s="8"/>
     </row>
-    <row r="1480" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1480" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1480" s="8"/>
     </row>
-    <row r="1481" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1481" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1481" s="8"/>
     </row>
-    <row r="1482" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1482" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1482" s="8"/>
     </row>
-    <row r="1483" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1483" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1483" s="8"/>
     </row>
-    <row r="1484" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1484" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1484" s="8"/>
     </row>
-    <row r="1485" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1485" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1485" s="8"/>
     </row>
-    <row r="1486" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1486" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1486" s="8"/>
     </row>
-    <row r="1487" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1487" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1487" s="8"/>
     </row>
-    <row r="1488" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1488" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1488" s="8"/>
     </row>
-    <row r="1489" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1489" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1489" s="8"/>
     </row>
-    <row r="1490" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1490" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1490" s="8"/>
     </row>
-    <row r="1491" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1491" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1491" s="8"/>
     </row>
-    <row r="1492" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1492" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1492" s="8"/>
     </row>
-    <row r="1493" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1493" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1493" s="8"/>
     </row>
-    <row r="1494" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1494" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1494" s="8"/>
     </row>
-    <row r="1495" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1495" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1495" s="8"/>
     </row>
-    <row r="1496" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1496" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1496" s="8"/>
     </row>
-    <row r="1497" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1497" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1497" s="8"/>
     </row>
-    <row r="1498" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1498" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1498" s="8"/>
     </row>
-    <row r="1499" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1499" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1499" s="8"/>
     </row>
-    <row r="1500" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1500" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1500" s="8"/>
     </row>
-    <row r="1501" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1501" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1501" s="8"/>
     </row>
-    <row r="1502" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1502" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1502" s="8"/>
     </row>
-    <row r="1503" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1503" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1503" s="8"/>
     </row>
-    <row r="1504" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1504" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1504" s="8"/>
     </row>
-    <row r="1505" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1505" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1505" s="8"/>
     </row>
-    <row r="1506" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1506" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1506" s="8"/>
     </row>
-    <row r="1507" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1507" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1507" s="8"/>
     </row>
-    <row r="1508" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1508" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1508" s="8"/>
     </row>
-    <row r="1509" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1509" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1509" s="8"/>
     </row>
-    <row r="1510" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1510" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1510" s="8"/>
     </row>
-    <row r="1511" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1511" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1511" s="8"/>
     </row>
-    <row r="1512" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1512" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1512" s="8"/>
     </row>
-    <row r="1513" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1513" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1513" s="8"/>
     </row>
-    <row r="1514" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1514" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1514" s="8"/>
     </row>
-    <row r="1515" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1515" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1515" s="8"/>
     </row>
-    <row r="1516" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1516" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1516" s="8"/>
     </row>
-    <row r="1517" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1517" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1517" s="8"/>
     </row>
-    <row r="1518" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1518" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1518" s="8"/>
     </row>
-    <row r="1519" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1519" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1519" s="8"/>
     </row>
-    <row r="1520" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1520" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1520" s="8"/>
     </row>
-    <row r="1521" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1521" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1521" s="8"/>
     </row>
-    <row r="1522" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1522" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1522" s="8"/>
     </row>
-    <row r="1523" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1523" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1523" s="8"/>
     </row>
-    <row r="1524" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1524" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1524" s="8"/>
     </row>
-    <row r="1525" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1525" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1525" s="8"/>
     </row>
-    <row r="1526" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1526" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1526" s="8"/>
     </row>
-    <row r="1527" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1527" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1527" s="8"/>
     </row>
-    <row r="1528" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1528" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1528" s="8"/>
     </row>
-    <row r="1529" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1529" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1529" s="8"/>
     </row>
-    <row r="1530" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1530" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1530" s="8"/>
     </row>
-    <row r="1531" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1531" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1531" s="8"/>
     </row>
-    <row r="1532" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1532" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1532" s="8"/>
     </row>
-    <row r="1533" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1533" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1533" s="8"/>
     </row>
-    <row r="1534" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1534" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1534" s="8"/>
     </row>
-    <row r="1535" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1535" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1535" s="8"/>
     </row>
-    <row r="1536" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1536" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1536" s="8"/>
     </row>
-    <row r="1537" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1537" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1537" s="8"/>
     </row>
-    <row r="1538" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1538" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1538" s="8"/>
     </row>
-    <row r="1539" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1539" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1539" s="8"/>
     </row>
-    <row r="1540" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1540" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1540" s="8"/>
     </row>
-    <row r="1541" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1541" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1541" s="8"/>
     </row>
-    <row r="1542" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1542" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1542" s="8"/>
     </row>
-    <row r="1543" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1543" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1543" s="8"/>
     </row>
-    <row r="1544" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1544" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1544" s="8"/>
     </row>
-    <row r="1545" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1545" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1545" s="8"/>
     </row>
-    <row r="1546" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1546" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1546" s="8"/>
     </row>
-    <row r="1547" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1547" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1547" s="8"/>
     </row>
-    <row r="1548" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1548" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1548" s="8"/>
     </row>
-    <row r="1549" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1549" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1549" s="8"/>
     </row>
-    <row r="1550" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1550" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1550" s="8"/>
     </row>
-    <row r="1551" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1551" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1551" s="8"/>
     </row>
-    <row r="1552" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1552" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1552" s="8"/>
     </row>
-    <row r="1553" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1553" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1553" s="8"/>
     </row>
-    <row r="1554" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1554" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1554" s="8"/>
     </row>
-    <row r="1555" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1555" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1555" s="8"/>
     </row>
-    <row r="1556" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1556" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1556" s="8"/>
     </row>
-    <row r="1557" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1557" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1557" s="8"/>
     </row>
-    <row r="1558" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1558" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1558" s="8"/>
     </row>
-    <row r="1559" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1559" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1559" s="8"/>
     </row>
-    <row r="1560" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1560" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1560" s="8"/>
     </row>
-    <row r="1561" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1561" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1561" s="8"/>
     </row>
-    <row r="1562" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1562" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1562" s="8"/>
     </row>
-    <row r="1563" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1563" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1563" s="8"/>
     </row>
-    <row r="1564" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1564" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1564" s="8"/>
     </row>
-    <row r="1565" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1565" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1565" s="8"/>
     </row>
-    <row r="1566" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1566" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1566" s="8"/>
     </row>
-    <row r="1567" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1567" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1567" s="8"/>
     </row>
-    <row r="1568" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1568" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1568" s="8"/>
     </row>
-    <row r="1569" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1569" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1569" s="8"/>
     </row>
-    <row r="1570" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1570" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1570" s="8"/>
     </row>
-    <row r="1571" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1571" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1571" s="8"/>
     </row>
-    <row r="1572" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1572" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1572" s="8"/>
     </row>
-    <row r="1573" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1573" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1573" s="8"/>
     </row>
-    <row r="1574" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1574" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1574" s="8"/>
     </row>
-    <row r="1575" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1575" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1575" s="8"/>
     </row>
-    <row r="1576" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1576" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1576" s="8"/>
     </row>
-    <row r="1577" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1577" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1577" s="8"/>
     </row>
-    <row r="1578" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1578" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1578" s="8"/>
     </row>
-    <row r="1579" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1579" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1579" s="8"/>
     </row>
-    <row r="1580" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1580" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1580" s="8"/>
     </row>
-    <row r="1581" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1581" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1581" s="8"/>
     </row>
-    <row r="1582" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1582" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1582" s="8"/>
     </row>
-    <row r="1583" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1583" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1583" s="8"/>
     </row>
-    <row r="1584" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1584" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1584" s="8"/>
     </row>
-    <row r="1585" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1585" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1585" s="8"/>
     </row>
-    <row r="1586" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1586" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1586" s="8"/>
     </row>
-    <row r="1587" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1587" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1587" s="8"/>
     </row>
-    <row r="1588" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1588" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1588" s="8"/>
     </row>
-    <row r="1589" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1589" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1589" s="8"/>
     </row>
-    <row r="1590" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1590" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1590" s="8"/>
     </row>
-    <row r="1591" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1591" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1591" s="8"/>
     </row>
-    <row r="1592" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1592" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1592" s="8"/>
     </row>
-    <row r="1593" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1593" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1593" s="8"/>
     </row>
-    <row r="1594" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1594" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1594" s="8"/>
     </row>
-    <row r="1595" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1595" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1595" s="8"/>
     </row>
-    <row r="1596" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1596" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1596" s="8"/>
     </row>
-    <row r="1597" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1597" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1597" s="8"/>
     </row>
-    <row r="1598" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1598" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1598" s="8"/>
     </row>
-    <row r="1599" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1599" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1599" s="8"/>
     </row>
-    <row r="1600" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1600" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1600" s="8"/>
     </row>
-    <row r="1601" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1601" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1601" s="8"/>
     </row>
-    <row r="1602" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1602" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1602" s="8"/>
     </row>
-    <row r="1603" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1603" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1603" s="8"/>
     </row>
-    <row r="1604" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1604" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1604" s="8"/>
     </row>
-    <row r="1605" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1605" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1605" s="8"/>
     </row>
-    <row r="1606" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1606" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1606" s="8"/>
     </row>
-    <row r="1607" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1607" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1607" s="8"/>
     </row>
-    <row r="1608" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1608" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1608" s="8"/>
     </row>
-    <row r="1609" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1609" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1609" s="8"/>
     </row>
-    <row r="1610" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1610" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1610" s="8"/>
     </row>
-    <row r="1611" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1611" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1611" s="8"/>
     </row>
-    <row r="1612" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1612" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1612" s="8"/>
     </row>
-    <row r="1613" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1613" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1613" s="8"/>
     </row>
-    <row r="1614" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1614" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1614" s="8"/>
     </row>
-    <row r="1615" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1615" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1615" s="8"/>
     </row>
-    <row r="1616" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1616" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1616" s="8"/>
     </row>
-    <row r="1617" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1617" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1617" s="8"/>
     </row>
-    <row r="1618" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1618" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1618" s="8"/>
     </row>
-    <row r="1619" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1619" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1619" s="8"/>
     </row>
-    <row r="1620" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1620" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1620" s="8"/>
     </row>
-    <row r="1621" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1621" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1621" s="8"/>
     </row>
-    <row r="1622" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1622" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1622" s="8"/>
     </row>
-    <row r="1623" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1623" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1623" s="8"/>
     </row>
-    <row r="1624" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1624" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1624" s="8"/>
     </row>
-    <row r="1625" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1625" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1625" s="8"/>
     </row>
-    <row r="1626" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1626" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1626" s="8"/>
     </row>
-    <row r="1627" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1627" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1627" s="8"/>
     </row>
-    <row r="1628" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1628" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1628" s="8"/>
     </row>
-    <row r="1629" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1629" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1629" s="8"/>
     </row>
-    <row r="1630" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1630" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1630" s="8"/>
     </row>
-    <row r="1631" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1631" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1631" s="8"/>
     </row>
-    <row r="1632" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1632" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1632" s="8"/>
     </row>
-    <row r="1633" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1633" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1633" s="8"/>
     </row>
-    <row r="1634" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1634" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1634" s="8"/>
     </row>
-    <row r="1635" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1635" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1635" s="8"/>
     </row>
-    <row r="1636" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1636" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1636" s="8"/>
     </row>
-    <row r="1637" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1637" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1637" s="8"/>
     </row>
-    <row r="1638" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1638" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1638" s="8"/>
     </row>
-    <row r="1639" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1639" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1639" s="8"/>
     </row>
-    <row r="1640" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1640" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1640" s="8"/>
     </row>
-    <row r="1641" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1641" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1641" s="8"/>
     </row>
-    <row r="1642" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1642" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1642" s="8"/>
     </row>
-    <row r="1643" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1643" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1643" s="8"/>
     </row>
-    <row r="1644" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1644" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1644" s="8"/>
     </row>
-    <row r="1645" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1645" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1645" s="8"/>
     </row>
-    <row r="1646" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1646" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1646" s="8"/>
     </row>
-    <row r="1647" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1647" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1647" s="8"/>
     </row>
-    <row r="1648" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1648" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1648" s="8"/>
     </row>
-    <row r="1649" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1649" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1649" s="8"/>
     </row>
-    <row r="1650" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1650" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1650" s="8"/>
     </row>
-    <row r="1651" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1651" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1651" s="8"/>
     </row>
-    <row r="1652" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1652" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1652" s="8"/>
     </row>
-    <row r="1653" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1653" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1653" s="8"/>
     </row>
-    <row r="1654" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1654" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1654" s="8"/>
     </row>
-    <row r="1655" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1655" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1655" s="8"/>
     </row>
-    <row r="1656" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1656" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1656" s="8"/>
     </row>
-    <row r="1657" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1657" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1657" s="8"/>
     </row>
-    <row r="1658" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1658" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1658" s="8"/>
     </row>
-    <row r="1659" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1659" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1659" s="8"/>
     </row>
-    <row r="1660" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1660" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1660" s="8"/>
     </row>
-    <row r="1661" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1661" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1661" s="8"/>
     </row>
-    <row r="1662" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1662" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1662" s="8"/>
     </row>
-    <row r="1663" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1663" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1663" s="8"/>
     </row>
-    <row r="1664" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1664" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1664" s="8"/>
     </row>
-    <row r="1665" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1665" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1665" s="8"/>
     </row>
-    <row r="1666" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1666" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1666" s="8"/>
     </row>
-    <row r="1667" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1667" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1667" s="8"/>
     </row>
-    <row r="1668" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1668" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1668" s="8"/>
     </row>
-    <row r="1669" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1669" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1669" s="8"/>
     </row>
-    <row r="1670" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1670" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1670" s="8"/>
     </row>
-    <row r="1671" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1671" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1671" s="8"/>
     </row>
-    <row r="1672" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1672" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1672" s="8"/>
     </row>
-    <row r="1673" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1673" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1673" s="8"/>
     </row>
-    <row r="1674" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1674" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1674" s="8"/>
     </row>
-    <row r="1675" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1675" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1675" s="8"/>
     </row>
-    <row r="1676" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1676" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1676" s="8"/>
     </row>
-    <row r="1677" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1677" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1677" s="8"/>
     </row>
-    <row r="1678" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1678" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1678" s="8"/>
     </row>
-    <row r="1679" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1679" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1679" s="8"/>
     </row>
-    <row r="1680" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1680" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1680" s="8"/>
     </row>
-    <row r="1681" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1681" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1681" s="8"/>
     </row>
-    <row r="1682" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1682" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1682" s="8"/>
     </row>
-    <row r="1683" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1683" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1683" s="8"/>
     </row>
-    <row r="1684" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1684" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1684" s="8"/>
     </row>
-    <row r="1685" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1685" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1685" s="8"/>
     </row>
-    <row r="1686" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1686" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1686" s="8"/>
     </row>
-    <row r="1687" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1687" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1687" s="8"/>
     </row>
-    <row r="1688" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1688" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1688" s="8"/>
     </row>
-    <row r="1689" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1689" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1689" s="8"/>
     </row>
-    <row r="1690" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1690" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1690" s="8"/>
     </row>
-    <row r="1691" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1691" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1691" s="8"/>
     </row>
-    <row r="1692" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1692" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1692" s="8"/>
     </row>
-    <row r="1693" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1693" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1693" s="8"/>
     </row>
-    <row r="1694" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1694" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1694" s="8"/>
     </row>
-    <row r="1695" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1695" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1695" s="8"/>
     </row>
-    <row r="1696" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1696" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1696" s="8"/>
     </row>
-    <row r="1697" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1697" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1697" s="8"/>
     </row>
-    <row r="1698" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1698" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1698" s="8"/>
     </row>
-    <row r="1699" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1699" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1699" s="8"/>
     </row>
-    <row r="1700" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1700" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1700" s="8"/>
     </row>
-    <row r="1701" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1701" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1701" s="8"/>
     </row>
-    <row r="1702" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1702" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1702" s="8"/>
     </row>
-    <row r="1703" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1703" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1703" s="8"/>
     </row>
-    <row r="1704" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1704" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1704" s="8"/>
     </row>
-    <row r="1705" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1705" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1705" s="8"/>
     </row>
-    <row r="1706" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1706" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1706" s="8"/>
     </row>
-    <row r="1707" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1707" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1707" s="8"/>
     </row>
-    <row r="1708" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1708" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1708" s="8"/>
     </row>
-    <row r="1709" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1709" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1709" s="8"/>
     </row>
-    <row r="1710" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1710" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1710" s="8"/>
     </row>
-    <row r="1711" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1711" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1711" s="8"/>
     </row>
-    <row r="1712" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1712" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1712" s="8"/>
     </row>
-    <row r="1713" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1713" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1713" s="8"/>
     </row>
-    <row r="1714" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1714" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1714" s="8"/>
     </row>
-    <row r="1715" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1715" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1715" s="8"/>
     </row>
-    <row r="1716" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1716" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1716" s="8"/>
     </row>
-    <row r="1717" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1717" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1717" s="8"/>
     </row>
-    <row r="1718" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1718" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1718" s="8"/>
     </row>
-    <row r="1719" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1719" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1719" s="8"/>
     </row>
-    <row r="1720" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1720" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1720" s="8"/>
     </row>
-    <row r="1721" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1721" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1721" s="8"/>
     </row>
-    <row r="1722" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1722" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1722" s="8"/>
     </row>
-    <row r="1723" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1723" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1723" s="8"/>
     </row>
-    <row r="1724" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1724" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1724" s="8"/>
     </row>
-    <row r="1725" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1725" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1725" s="8"/>
     </row>
-    <row r="1726" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1726" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1726" s="8"/>
     </row>
-    <row r="1727" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1727" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1727" s="8"/>
     </row>
-    <row r="1728" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1728" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1728" s="8"/>
     </row>
-    <row r="1729" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1729" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1729" s="8"/>
     </row>
-    <row r="1730" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1730" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1730" s="8"/>
     </row>
-    <row r="1731" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1731" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1731" s="8"/>
     </row>
-    <row r="1732" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1732" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1732" s="8"/>
     </row>
-    <row r="1733" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1733" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1733" s="8"/>
     </row>
-    <row r="1734" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1734" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1734" s="8"/>
     </row>
-    <row r="1735" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1735" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1735" s="8"/>
     </row>
-    <row r="1736" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1736" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1736" s="8"/>
     </row>
-    <row r="1737" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1737" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1737" s="8"/>
     </row>
-    <row r="1738" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1738" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1738" s="8"/>
     </row>
-    <row r="1739" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1739" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1739" s="8"/>
     </row>
-    <row r="1740" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1740" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1740" s="8"/>
     </row>
-    <row r="1741" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1741" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1741" s="8"/>
     </row>
-    <row r="1742" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1742" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1742" s="8"/>
     </row>
-    <row r="1743" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1743" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1743" s="8"/>
     </row>
-    <row r="1744" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1744" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1744" s="8"/>
     </row>
-    <row r="1745" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1745" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1745" s="8"/>
     </row>
-    <row r="1746" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1746" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1746" s="8"/>
     </row>
-    <row r="1747" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1747" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1747" s="8"/>
     </row>
-    <row r="1748" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1748" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1748" s="8"/>
     </row>
-    <row r="1749" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1749" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1749" s="8"/>
     </row>
-    <row r="1750" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1750" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1750" s="8"/>
     </row>
-    <row r="1751" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1751" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1751" s="8"/>
     </row>
-    <row r="1752" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1752" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1752" s="8"/>
     </row>
-    <row r="1753" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1753" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1753" s="8"/>
     </row>
-    <row r="1754" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1754" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1754" s="8"/>
     </row>
-    <row r="1755" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1755" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1755" s="8"/>
     </row>
-    <row r="1756" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1756" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1756" s="8"/>
     </row>
-    <row r="1757" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1757" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1757" s="8"/>
     </row>
-    <row r="1758" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1758" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1758" s="8"/>
     </row>
-    <row r="1759" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1759" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1759" s="8"/>
     </row>
-    <row r="1760" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1760" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1760" s="8"/>
     </row>
-    <row r="1761" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1761" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1761" s="8"/>
     </row>
-    <row r="1762" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1762" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1762" s="8"/>
     </row>
-    <row r="1763" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1763" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1763" s="8"/>
     </row>
-    <row r="1764" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1764" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1764" s="8"/>
     </row>
-    <row r="1765" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1765" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1765" s="8"/>
     </row>
-    <row r="1766" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1766" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1766" s="8"/>
     </row>
-    <row r="1767" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1767" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1767" s="8"/>
     </row>
-    <row r="1768" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1768" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1768" s="8"/>
     </row>
-    <row r="1769" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1769" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1769" s="8"/>
     </row>
-    <row r="1770" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1770" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1770" s="8"/>
     </row>
-    <row r="1771" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1771" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1771" s="8"/>
     </row>
-    <row r="1772" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1772" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1772" s="8"/>
     </row>
-    <row r="1773" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1773" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1773" s="8"/>
     </row>
-    <row r="1774" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1774" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1774" s="8"/>
     </row>
-    <row r="1775" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1775" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1775" s="8"/>
     </row>
-    <row r="1776" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1776" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1776" s="8"/>
     </row>
-    <row r="1777" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1777" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1777" s="8"/>
     </row>
-    <row r="1778" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1778" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1778" s="8"/>
     </row>
-    <row r="1779" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1779" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1779" s="8"/>
     </row>
-    <row r="1780" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1780" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1780" s="8"/>
     </row>
-    <row r="1781" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1781" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1781" s="8"/>
     </row>
-    <row r="1782" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1782" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1782" s="8"/>
     </row>
-    <row r="1783" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1783" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1783" s="8"/>
     </row>
-    <row r="1784" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1784" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1784" s="8"/>
     </row>
-    <row r="1785" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1785" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1785" s="8"/>
     </row>
-    <row r="1786" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1786" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1786" s="8"/>
     </row>
-    <row r="1787" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1787" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1787" s="8"/>
     </row>
-    <row r="1788" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1788" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1788" s="8"/>
     </row>
-    <row r="1789" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1789" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1789" s="8"/>
     </row>
-    <row r="1790" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1790" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1790" s="8"/>
     </row>
-    <row r="1791" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1791" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1791" s="8"/>
     </row>
-    <row r="1792" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1792" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1792" s="8"/>
     </row>
-    <row r="1793" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1793" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1793" s="8"/>
     </row>
-    <row r="1794" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1794" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1794" s="8"/>
     </row>
-    <row r="1795" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1795" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1795" s="8"/>
     </row>
-    <row r="1796" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1796" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1796" s="8"/>
     </row>
-    <row r="1797" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1797" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1797" s="8"/>
     </row>
-    <row r="1798" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1798" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1798" s="8"/>
     </row>
-    <row r="1799" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1799" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1799" s="8"/>
     </row>
-    <row r="1800" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1800" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1800" s="8"/>
     </row>
-    <row r="1801" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1801" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1801" s="8"/>
     </row>
-    <row r="1802" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1802" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1802" s="8"/>
     </row>
-    <row r="1803" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1803" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1803" s="8"/>
     </row>
-    <row r="1804" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1804" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1804" s="8"/>
     </row>
-    <row r="1805" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1805" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1805" s="8"/>
     </row>
-    <row r="1806" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1806" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1806" s="8"/>
     </row>
-    <row r="1807" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1807" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1807" s="8"/>
     </row>
-    <row r="1808" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1808" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1808" s="8"/>
     </row>
-    <row r="1809" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1809" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1809" s="8"/>
     </row>
-    <row r="1810" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1810" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1810" s="8"/>
     </row>
-    <row r="1811" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1811" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1811" s="8"/>
     </row>
-    <row r="1812" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1812" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1812" s="8"/>
     </row>
-    <row r="1813" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1813" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1813" s="8"/>
     </row>
-    <row r="1814" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1814" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1814" s="8"/>
     </row>
-    <row r="1815" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1815" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1815" s="8"/>
     </row>
-    <row r="1816" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1816" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1816" s="8"/>
     </row>
-    <row r="1817" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1817" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1817" s="8"/>
     </row>
-    <row r="1818" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1818" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1818" s="8"/>
     </row>
-    <row r="1819" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1819" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1819" s="8"/>
     </row>
-    <row r="1820" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1820" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1820" s="8"/>
     </row>
-    <row r="1821" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1821" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1821" s="8"/>
     </row>
-    <row r="1822" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1822" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1822" s="8"/>
     </row>
-    <row r="1823" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1823" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1823" s="8"/>
     </row>
-    <row r="1824" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1824" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1824" s="8"/>
     </row>
-    <row r="1825" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1825" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1825" s="8"/>
     </row>
-    <row r="1826" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1826" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1826" s="8"/>
     </row>
-    <row r="1827" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1827" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1827" s="8"/>
     </row>
-    <row r="1828" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1828" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1828" s="8"/>
     </row>
-    <row r="1829" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1829" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1829" s="8"/>
     </row>
-    <row r="1830" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1830" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1830" s="8"/>
     </row>
-    <row r="1831" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1831" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1831" s="8"/>
     </row>
-    <row r="1832" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1832" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1832" s="8"/>
     </row>
-    <row r="1833" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1833" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1833" s="8"/>
     </row>
-    <row r="1834" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1834" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1834" s="8"/>
     </row>
-    <row r="1835" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1835" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1835" s="8"/>
     </row>
-    <row r="1836" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1836" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1836" s="8"/>
     </row>
-    <row r="1837" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1837" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1837" s="8"/>
     </row>
-    <row r="1838" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1838" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1838" s="8"/>
     </row>
-    <row r="1839" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1839" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1839" s="8"/>
     </row>
-    <row r="1840" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1840" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1840" s="8"/>
     </row>
-    <row r="1841" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1841" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1841" s="8"/>
     </row>
-    <row r="1842" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1842" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1842" s="8"/>
     </row>
-    <row r="1843" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1843" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1843" s="8"/>
     </row>
-    <row r="1844" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1844" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1844" s="8"/>
     </row>
-    <row r="1845" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1845" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1845" s="8"/>
     </row>
-    <row r="1846" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1846" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1846" s="8"/>
     </row>
-    <row r="1847" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1847" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1847" s="8"/>
     </row>
-    <row r="1848" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1848" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1848" s="8"/>
     </row>
-    <row r="1849" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1849" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1849" s="8"/>
     </row>
-    <row r="1850" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1850" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1850" s="8"/>
     </row>
-    <row r="1851" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1851" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1851" s="8"/>
     </row>
-    <row r="1852" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1852" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1852" s="8"/>
     </row>
-    <row r="1853" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1853" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1853" s="8"/>
     </row>
-    <row r="1854" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1854" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1854" s="8"/>
     </row>
-    <row r="1855" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1855" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1855" s="8"/>
     </row>
-    <row r="1856" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1856" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1856" s="8"/>
     </row>
-    <row r="1857" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1857" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1857" s="8"/>
     </row>
-    <row r="1858" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1858" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1858" s="8"/>
     </row>
-    <row r="1859" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1859" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1859" s="8"/>
     </row>
-    <row r="1860" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1860" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1860" s="8"/>
     </row>
-    <row r="1861" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1861" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1861" s="8"/>
     </row>
-    <row r="1862" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1862" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1862" s="8"/>
     </row>
-    <row r="1863" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1863" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1863" s="8"/>
     </row>
-    <row r="1864" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1864" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1864" s="8"/>
     </row>
-    <row r="1865" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1865" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1865" s="8"/>
     </row>
-    <row r="1866" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1866" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1866" s="8"/>
     </row>
-    <row r="1867" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1867" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1867" s="8"/>
     </row>
-    <row r="1868" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1868" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1868" s="8"/>
     </row>
-    <row r="1869" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1869" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1869" s="8"/>
     </row>
-    <row r="1870" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1870" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1870" s="8"/>
     </row>
-    <row r="1871" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1871" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1871" s="8"/>
     </row>
-    <row r="1872" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1872" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1872" s="8"/>
     </row>
-    <row r="1873" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1873" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1873" s="8"/>
     </row>
-    <row r="1874" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1874" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1874" s="8"/>
     </row>
-    <row r="1875" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1875" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1875" s="8"/>
     </row>
-    <row r="1876" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1876" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1876" s="8"/>
     </row>
-    <row r="1877" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1877" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1877" s="8"/>
     </row>
-    <row r="1878" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1878" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1878" s="8"/>
     </row>
-    <row r="1879" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1879" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1879" s="8"/>
     </row>
-    <row r="1880" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1880" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1880" s="8"/>
     </row>
-    <row r="1881" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1881" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1881" s="8"/>
     </row>
-    <row r="1882" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1882" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1882" s="8"/>
     </row>
-    <row r="1883" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1883" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1883" s="8"/>
     </row>
-    <row r="1884" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1884" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1884" s="8"/>
     </row>
-    <row r="1885" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1885" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1885" s="8"/>
     </row>
-    <row r="1886" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1886" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1886" s="8"/>
     </row>
-    <row r="1887" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1887" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1887" s="8"/>
     </row>
-    <row r="1888" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1888" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1888" s="8"/>
     </row>
-    <row r="1889" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1889" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1889" s="8"/>
     </row>
-    <row r="1890" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1890" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1890" s="8"/>
     </row>
-    <row r="1891" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1891" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1891" s="8"/>
     </row>
-    <row r="1892" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1892" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1892" s="8"/>
     </row>
-    <row r="1893" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1893" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1893" s="8"/>
     </row>
-    <row r="1894" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1894" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1894" s="8"/>
     </row>
-    <row r="1895" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1895" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1895" s="8"/>
     </row>
-    <row r="1896" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1896" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1896" s="8"/>
     </row>
-    <row r="1897" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1897" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1897" s="8"/>
     </row>
-    <row r="1898" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1898" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1898" s="8"/>
     </row>
-    <row r="1899" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1899" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1899" s="8"/>
     </row>
-    <row r="1900" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1900" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1900" s="8"/>
     </row>
-    <row r="1901" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1901" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1901" s="8"/>
     </row>
-    <row r="1902" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1902" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1902" s="8"/>
     </row>
-    <row r="1903" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1903" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1903" s="8"/>
     </row>
-    <row r="1904" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1904" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1904" s="8"/>
     </row>
-    <row r="1905" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1905" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1905" s="8"/>
     </row>
-    <row r="1906" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1906" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1906" s="8"/>
     </row>
-    <row r="1907" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1907" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1907" s="8"/>
     </row>
-    <row r="1908" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1908" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1908" s="8"/>
     </row>
-    <row r="1909" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1909" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1909" s="8"/>
     </row>
-    <row r="1910" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1910" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1910" s="8"/>
     </row>
-    <row r="1911" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1911" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1911" s="8"/>
     </row>
-    <row r="1912" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1912" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1912" s="8"/>
     </row>
-    <row r="1913" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1913" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1913" s="8"/>
     </row>
-    <row r="1914" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1914" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1914" s="8"/>
     </row>
-    <row r="1915" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1915" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1915" s="8"/>
     </row>
-    <row r="1916" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1916" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1916" s="8"/>
     </row>
-    <row r="1917" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1917" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1917" s="8"/>
     </row>
-    <row r="1918" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1918" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1918" s="8"/>
     </row>
-    <row r="1919" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1919" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1919" s="8"/>
     </row>
-    <row r="1920" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1920" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1920" s="8"/>
     </row>
-    <row r="1921" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1921" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1921" s="8"/>
     </row>
-    <row r="1922" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1922" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1922" s="8"/>
     </row>
-    <row r="1923" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1923" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1923" s="8"/>
     </row>
-    <row r="1924" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1924" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1924" s="8"/>
     </row>
-    <row r="1925" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1925" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1925" s="8"/>
     </row>
-    <row r="1926" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1926" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1926" s="8"/>
     </row>
-    <row r="1927" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1927" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1927" s="8"/>
     </row>
-    <row r="1928" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1928" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1928" s="8"/>
     </row>
-    <row r="1929" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1929" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1929" s="8"/>
     </row>
-    <row r="1930" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1930" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1930" s="8"/>
     </row>
-    <row r="1931" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1931" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1931" s="8"/>
     </row>
-    <row r="1932" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1932" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1932" s="8"/>
     </row>
-    <row r="1933" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1933" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1933" s="8"/>
     </row>
-    <row r="1934" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1934" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1934" s="8"/>
     </row>
-    <row r="1935" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1935" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1935" s="8"/>
     </row>
-    <row r="1936" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1936" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1936" s="8"/>
     </row>
-    <row r="1937" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1937" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1937" s="8"/>
     </row>
-    <row r="1938" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1938" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1938" s="8"/>
     </row>
-    <row r="1939" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1939" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1939" s="8"/>
     </row>
-    <row r="1940" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1940" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1940" s="8"/>
     </row>
-    <row r="1941" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1941" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1941" s="8"/>
     </row>
-    <row r="1942" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1942" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1942" s="8"/>
     </row>
-    <row r="1943" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1943" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1943" s="8"/>
     </row>
-    <row r="1944" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1944" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1944" s="8"/>
     </row>
-    <row r="1945" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1945" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1945" s="8"/>
     </row>
-    <row r="1946" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1946" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1946" s="8"/>
     </row>
-    <row r="1947" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1947" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1947" s="8"/>
     </row>
-    <row r="1948" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1948" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1948" s="8"/>
     </row>
-    <row r="1949" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1949" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1949" s="8"/>
     </row>
-    <row r="1950" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1950" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1950" s="8"/>
     </row>
-    <row r="1951" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1951" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1951" s="8"/>
     </row>
-    <row r="1952" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1952" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1952" s="8"/>
     </row>
-    <row r="1953" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1953" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1953" s="8"/>
     </row>
-    <row r="1954" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1954" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1954" s="8"/>
     </row>
-    <row r="1955" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1955" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1955" s="8"/>
     </row>
-    <row r="1956" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1956" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1956" s="8"/>
     </row>
-    <row r="1957" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1957" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1957" s="8"/>
     </row>
-    <row r="1958" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1958" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1958" s="8"/>
     </row>
-    <row r="1959" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1959" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1959" s="8"/>
     </row>
-    <row r="1960" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1960" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1960" s="8"/>
     </row>
-    <row r="1961" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1961" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1961" s="8"/>
     </row>
-    <row r="1962" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1962" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1962" s="8"/>
     </row>
-    <row r="1963" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1963" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1963" s="8"/>
     </row>
-    <row r="1964" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1964" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1964" s="8"/>
     </row>
-    <row r="1965" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1965" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1965" s="8"/>
     </row>
-    <row r="1966" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1966" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1966" s="8"/>
     </row>
-    <row r="1967" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1967" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1967" s="8"/>
     </row>
-    <row r="1968" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1968" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1968" s="8"/>
     </row>
-    <row r="1969" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1969" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1969" s="8"/>
     </row>
-    <row r="1970" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1970" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1970" s="8"/>
     </row>
-    <row r="1971" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1971" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1971" s="8"/>
     </row>
-    <row r="1972" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1972" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1972" s="8"/>
     </row>
-    <row r="1973" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1973" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1973" s="8"/>
     </row>
-    <row r="1974" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1974" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1974" s="8"/>
     </row>
-    <row r="1975" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1975" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1975" s="8"/>
     </row>
-    <row r="1976" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1976" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1976" s="8"/>
     </row>
-    <row r="1977" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1977" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1977" s="8"/>
     </row>
-    <row r="1978" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1978" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1978" s="8"/>
     </row>
-    <row r="1979" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1979" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1979" s="8"/>
     </row>
-    <row r="1980" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1980" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1980" s="8"/>
     </row>
-    <row r="1981" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1981" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1981" s="8"/>
     </row>
-    <row r="1982" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1982" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1982" s="8"/>
     </row>
-    <row r="1983" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1983" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1983" s="8"/>
     </row>
-    <row r="1984" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1984" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1984" s="8"/>
     </row>
-    <row r="1985" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1985" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1985" s="8"/>
     </row>
-    <row r="1986" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1986" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1986" s="8"/>
     </row>
-    <row r="1987" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1987" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1987" s="8"/>
     </row>
-    <row r="1988" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1988" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1988" s="8"/>
     </row>
-    <row r="1989" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1989" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1989" s="8"/>
     </row>
-    <row r="1990" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1990" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1990" s="8"/>
     </row>
-    <row r="1991" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1991" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1991" s="8"/>
     </row>
-    <row r="1992" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1992" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1992" s="8"/>
     </row>
-    <row r="1993" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1993" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1993" s="8"/>
     </row>
-    <row r="1994" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1994" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1994" s="8"/>
     </row>
-    <row r="1995" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1995" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1995" s="8"/>
     </row>
-    <row r="1996" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1996" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1996" s="8"/>
     </row>
-    <row r="1997" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1997" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1997" s="8"/>
     </row>
-    <row r="1998" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1998" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1998" s="8"/>
     </row>
-    <row r="1999" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1999" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1999" s="8"/>
     </row>
-    <row r="2000" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2000" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2000" s="8"/>
     </row>
-    <row r="2001" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2001" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2001" s="8"/>
     </row>
-    <row r="2002" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2002" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2002" s="8"/>
     </row>
-    <row r="2003" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2003" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2003" s="8"/>
     </row>
-    <row r="2004" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2004" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2004" s="8"/>
     </row>
-    <row r="2005" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2005" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2005" s="8"/>
     </row>
-    <row r="2006" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2006" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2006" s="8"/>
     </row>
-    <row r="2007" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2007" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2007" s="8"/>
     </row>
-    <row r="2008" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2008" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2008" s="8"/>
     </row>
-    <row r="2009" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2009" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2009" s="8"/>
     </row>
-    <row r="2010" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2010" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2010" s="8"/>
     </row>
-    <row r="2011" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2011" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2011" s="8"/>
     </row>
-    <row r="2012" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2012" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2012" s="8"/>
     </row>
-    <row r="2013" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2013" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2013" s="8"/>
     </row>
-    <row r="2014" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2014" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2014" s="8"/>
     </row>
-    <row r="2015" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2015" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2015" s="8"/>
     </row>
-    <row r="2016" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2016" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2016" s="8"/>
     </row>
-    <row r="2017" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2017" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2017" s="8"/>
     </row>
-    <row r="2018" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2018" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2018" s="8"/>
     </row>
-    <row r="2019" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2019" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2019" s="8"/>
     </row>
-    <row r="2020" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2020" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2020" s="8"/>
     </row>
-    <row r="2021" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2021" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2021" s="8"/>
     </row>
-    <row r="2022" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2022" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2022" s="8"/>
     </row>
-    <row r="2023" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2023" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2023" s="8"/>
     </row>
-    <row r="2024" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2024" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2024" s="8"/>
     </row>
-    <row r="2025" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2025" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2025" s="8"/>
     </row>
-    <row r="2026" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2026" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2026" s="8"/>
     </row>
-    <row r="2027" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2027" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2027" s="8"/>
     </row>
-    <row r="2028" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2028" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2028" s="8"/>
     </row>
-    <row r="2029" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2029" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2029" s="8"/>
     </row>
-    <row r="2030" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2030" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2030" s="8"/>
     </row>
-    <row r="2031" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2031" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2031" s="8"/>
     </row>
-    <row r="2032" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2032" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2032" s="8"/>
     </row>
-    <row r="2033" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2033" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2033" s="8"/>
     </row>
-    <row r="2034" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2034" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2034" s="8"/>
     </row>
-    <row r="2035" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2035" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2035" s="8"/>
     </row>
-    <row r="2036" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2036" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2036" s="8"/>
     </row>
-    <row r="2037" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2037" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2037" s="8"/>
     </row>
-    <row r="2038" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2038" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2038" s="8"/>
     </row>
-    <row r="2039" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2039" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2039" s="8"/>
     </row>
-    <row r="2040" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2040" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2040" s="8"/>
     </row>
-    <row r="2041" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2041" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2041" s="8"/>
     </row>
-    <row r="2042" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2042" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2042" s="8"/>
     </row>
-    <row r="2043" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2043" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2043" s="8"/>
     </row>
-    <row r="2044" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2044" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2044" s="8"/>
     </row>
-    <row r="2045" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2045" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2045" s="8"/>
     </row>
-    <row r="2046" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2046" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2046" s="8"/>
     </row>
-    <row r="2047" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2047" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2047" s="8"/>
     </row>
-    <row r="2048" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2048" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2048" s="8"/>
     </row>
-    <row r="2049" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2049" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2049" s="8"/>
     </row>
-    <row r="2050" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2050" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2050" s="8"/>
     </row>
-    <row r="2051" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2051" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2051" s="8"/>
     </row>
-    <row r="2052" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2052" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2052" s="8"/>
     </row>
-    <row r="2053" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2053" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2053" s="8"/>
     </row>
-    <row r="2054" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2054" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2054" s="8"/>
     </row>
-    <row r="2055" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2055" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2055" s="8"/>
     </row>
-    <row r="2056" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2056" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2056" s="8"/>
     </row>
-    <row r="2057" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2057" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2057" s="8"/>
     </row>
-    <row r="2058" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2058" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2058" s="8"/>
     </row>
-    <row r="2059" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2059" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2059" s="8"/>
     </row>
-    <row r="2060" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2060" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2060" s="8"/>
     </row>
-    <row r="2061" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2061" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2061" s="8"/>
     </row>
-    <row r="2062" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2062" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2062" s="8"/>
     </row>
-    <row r="2063" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2063" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2063" s="8"/>
     </row>
-    <row r="2064" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2064" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2064" s="8"/>
     </row>
-    <row r="2065" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2065" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2065" s="8"/>
     </row>
-    <row r="2066" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2066" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2066" s="8"/>
     </row>
-    <row r="2067" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2067" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2067" s="8"/>
     </row>
-    <row r="2068" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2068" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2068" s="8"/>
     </row>
-    <row r="2069" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2069" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2069" s="8"/>
     </row>
-    <row r="2070" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2070" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2070" s="8"/>
     </row>
-    <row r="2071" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2071" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2071" s="8"/>
     </row>
-    <row r="2072" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2072" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2072" s="8"/>
     </row>
-    <row r="2073" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2073" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2073" s="8"/>
     </row>
-    <row r="2074" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2074" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2074" s="8"/>
     </row>
-    <row r="2075" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2075" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2075" s="8"/>
     </row>
-    <row r="2076" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2076" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2076" s="8"/>
     </row>
-    <row r="2077" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2077" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2077" s="8"/>
     </row>
-    <row r="2078" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2078" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2078" s="8"/>
     </row>
-    <row r="2079" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2079" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2079" s="8"/>
     </row>
-    <row r="2080" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2080" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2080" s="8"/>
     </row>
-    <row r="2081" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2081" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2081" s="8"/>
     </row>
-    <row r="2082" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2082" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2082" s="8"/>
     </row>
-    <row r="2083" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2083" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2083" s="8"/>
     </row>
-    <row r="2084" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2084" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2084" s="8"/>
     </row>
-    <row r="2085" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2085" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2085" s="8"/>
     </row>
-    <row r="2086" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2086" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2086" s="8"/>
     </row>
-    <row r="2087" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2087" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2087" s="8"/>
     </row>
-    <row r="2088" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2088" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2088" s="8"/>
     </row>
-    <row r="2089" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2089" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2089" s="8"/>
     </row>
-    <row r="2090" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2090" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2090" s="8"/>
     </row>
-    <row r="2091" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2091" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2091" s="8"/>
     </row>
-    <row r="2092" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2092" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2092" s="8"/>
     </row>
-    <row r="2093" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2093" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2093" s="8"/>
     </row>
-    <row r="2094" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2094" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2094" s="8"/>
     </row>
-    <row r="2095" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2095" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2095" s="8"/>
     </row>
-    <row r="2096" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2096" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2096" s="8"/>
     </row>
-    <row r="2097" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2097" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2097" s="8"/>
     </row>
-    <row r="2098" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2098" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2098" s="8"/>
     </row>
-    <row r="2099" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2099" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2099" s="8"/>
     </row>
-    <row r="2100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2100" s="8"/>
     </row>
-    <row r="2101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2101" s="8"/>
     </row>
-    <row r="2102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2102" s="8"/>
     </row>
-    <row r="2103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2103" s="8"/>
     </row>
-    <row r="2104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2104" s="8"/>
     </row>
-    <row r="2105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2105" s="8"/>
     </row>
-    <row r="2106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2106" s="8"/>
     </row>
-    <row r="2107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2107" s="8"/>
     </row>
-    <row r="2108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2108" s="8"/>
     </row>
-    <row r="2109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2109" s="8"/>
     </row>
-    <row r="2110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2110" s="8"/>
     </row>
-    <row r="2111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2111" s="8"/>
     </row>
-    <row r="2112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2112" s="8"/>
     </row>
-    <row r="2113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2113" s="8"/>
     </row>
-    <row r="2114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2114" s="8"/>
     </row>
-    <row r="2115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2115" s="8"/>
     </row>
-    <row r="2116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2116" s="8"/>
     </row>
-    <row r="2117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2117" s="8"/>
     </row>
-    <row r="2118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2118" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2118" s="8"/>
     </row>
-    <row r="2119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2119" s="8"/>
     </row>
-    <row r="2120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2120" s="8"/>
     </row>
-    <row r="2121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2121" s="8"/>
     </row>
-    <row r="2122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2122" s="8"/>
     </row>
-    <row r="2123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2123" s="8"/>
     </row>
-    <row r="2124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2124" s="8"/>
     </row>
-    <row r="2125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2125" s="8"/>
     </row>
-    <row r="2126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2126" s="8"/>
     </row>
-    <row r="2127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2127" s="8"/>
     </row>
-    <row r="2128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2128" s="8"/>
     </row>
-    <row r="2129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2129" s="8"/>
     </row>
-    <row r="2130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2130" s="8"/>
     </row>
-    <row r="2131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2131" s="8"/>
     </row>
-    <row r="2132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2132" s="8"/>
     </row>
-    <row r="2133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2133" s="8"/>
     </row>
-    <row r="2134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2134" s="8"/>
     </row>
-    <row r="2135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2135" s="8"/>
     </row>
-    <row r="2136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2136" s="8"/>
     </row>
-    <row r="2137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2137" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2137" s="8"/>
     </row>
-    <row r="2138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2138" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2138" s="8"/>
     </row>
-    <row r="2139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2139" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2139" s="8"/>
     </row>
-    <row r="2140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2140" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2140" s="8"/>
     </row>
-    <row r="2141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2141" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2141" s="8"/>
     </row>
-    <row r="2142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2142" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2142" s="8"/>
     </row>
-    <row r="2143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2143" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2143" s="8"/>
     </row>
-    <row r="2144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2144" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2144" s="8"/>
     </row>
-    <row r="2145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2145" s="8"/>
     </row>
-    <row r="2146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2146" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2146" s="8"/>
     </row>
-    <row r="2147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2147" s="8"/>
     </row>
-    <row r="2148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2148" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2148" s="8"/>
     </row>
-    <row r="2149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2149" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2149" s="8"/>
     </row>
-    <row r="2150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2150" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2150" s="8"/>
     </row>
-    <row r="2151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2151" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2151" s="8"/>
     </row>
-    <row r="2152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2152" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2152" s="8"/>
     </row>
-    <row r="2153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2153" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2153" s="8"/>
     </row>
-    <row r="2154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2154" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2154" s="8"/>
     </row>
-    <row r="2155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2155" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2155" s="8"/>
     </row>
-    <row r="2156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2156" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2156" s="8"/>
     </row>
-    <row r="2157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2157" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2157" s="8"/>
     </row>
-    <row r="2158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2158" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2158" s="8"/>
     </row>
-    <row r="2159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2159" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2159" s="8"/>
     </row>
-    <row r="2160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2160" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2160" s="8"/>
     </row>
-    <row r="2161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2161" s="8"/>
     </row>
-    <row r="2162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2162" s="8"/>
     </row>
-    <row r="2163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2163" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2163" s="8"/>
     </row>
-    <row r="2164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2164" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2164" s="8"/>
     </row>
-    <row r="2165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2165" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2165" s="8"/>
     </row>
-    <row r="2166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2166" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2166" s="8"/>
     </row>
-    <row r="2167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2167" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2167" s="8"/>
     </row>
-    <row r="2168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2168" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2168" s="8"/>
     </row>
-    <row r="2169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2169" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2169" s="8"/>
     </row>
-    <row r="2170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2170" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2170" s="8"/>
     </row>
-    <row r="2171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2171" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2171" s="8"/>
     </row>
-    <row r="2172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2172" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2172" s="8"/>
     </row>
-    <row r="2173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2173" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2173" s="8"/>
     </row>
-    <row r="2174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2174" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2174" s="8"/>
     </row>
-    <row r="2175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2175" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2175" s="8"/>
     </row>
-    <row r="2176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2176" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2176" s="8"/>
     </row>
-    <row r="2177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2177" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2177" s="8"/>
     </row>
-    <row r="2178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2178" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2178" s="8"/>
     </row>
-    <row r="2179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2179" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2179" s="8"/>
     </row>
-    <row r="2180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2180" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2180" s="8"/>
     </row>
-    <row r="2181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2181" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2181" s="8"/>
     </row>
-    <row r="2182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2182" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2182" s="8"/>
     </row>
-    <row r="2183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2183" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2183" s="8"/>
     </row>
-    <row r="2184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2184" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2184" s="8"/>
     </row>
-    <row r="2185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2185" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2185" s="8"/>
     </row>
-    <row r="2186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2186" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2186" s="8"/>
     </row>
-    <row r="2187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2187" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2187" s="8"/>
     </row>
-    <row r="2188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2188" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2188" s="8"/>
     </row>
-    <row r="2189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2189" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2189" s="8"/>
     </row>
-    <row r="2190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2190" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2190" s="8"/>
     </row>
-    <row r="2191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2191" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2191" s="8"/>
     </row>
-    <row r="2192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2192" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2192" s="8"/>
     </row>
-    <row r="2193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2193" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2193" s="8"/>
     </row>
-    <row r="2194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2194" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2194" s="8"/>
     </row>
-    <row r="2195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2195" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2195" s="8"/>
     </row>
-    <row r="2196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2196" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2196" s="8"/>
     </row>
-    <row r="2197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2197" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2197" s="8"/>
     </row>
-    <row r="2198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2198" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2198" s="8"/>
     </row>
-    <row r="2199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2199" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2199" s="8"/>
     </row>
-    <row r="2200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2200" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2200" s="8"/>
     </row>
-    <row r="2201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2201" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2201" s="8"/>
     </row>
-    <row r="2202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2202" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2202" s="8"/>
     </row>
-    <row r="2203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2203" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2203" s="8"/>
     </row>
-    <row r="2204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2204" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2204" s="8"/>
     </row>
-    <row r="2205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2205" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2205" s="8"/>
     </row>
-    <row r="2206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2206" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2206" s="8"/>
     </row>
-    <row r="2207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2207" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2207" s="8"/>
     </row>
-    <row r="2208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2208" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2208" s="8"/>
     </row>
-    <row r="2209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2209" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2209" s="8"/>
     </row>
-    <row r="2210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2210" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2210" s="8"/>
     </row>
-    <row r="2211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2211" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2211" s="8"/>
     </row>
-    <row r="2212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2212" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2212" s="8"/>
     </row>
-    <row r="2213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2213" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2213" s="8"/>
     </row>
-    <row r="2214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2214" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2214" s="8"/>
     </row>
-    <row r="2215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2215" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2215" s="8"/>
     </row>
-    <row r="2216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2216" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2216" s="8"/>
     </row>
-    <row r="2217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2217" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2217" s="8"/>
     </row>
-    <row r="2218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2218" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2218" s="8"/>
     </row>
-    <row r="2219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2219" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2219" s="8"/>
     </row>
-    <row r="2220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2220" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2220" s="8"/>
     </row>
-    <row r="2221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2221" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2221" s="8"/>
     </row>
-    <row r="2222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2222" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2222" s="8"/>
     </row>
-    <row r="2223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2223" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2223" s="8"/>
     </row>
-    <row r="2224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2224" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2224" s="8"/>
     </row>
-    <row r="2225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2225" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2225" s="8"/>
     </row>
-    <row r="2226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2226" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2226" s="8"/>
     </row>
-    <row r="2227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2227" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2227" s="8"/>
     </row>
-    <row r="2228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2228" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2228" s="8"/>
     </row>
-    <row r="2229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2229" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2229" s="8"/>
     </row>
-    <row r="2230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2230" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2230" s="8"/>
     </row>
-    <row r="2231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2231" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2231" s="8"/>
     </row>
-    <row r="2232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2232" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2232" s="8"/>
     </row>
-    <row r="2233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2233" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2233" s="8"/>
     </row>
-    <row r="2234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2234" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2234" s="8"/>
     </row>
-    <row r="2235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2235" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2235" s="8"/>
     </row>
-    <row r="2236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2236" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2236" s="8"/>
     </row>
-    <row r="2237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2237" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2237" s="8"/>
     </row>
-    <row r="2238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2238" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2238" s="8"/>
     </row>
-    <row r="2239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2239" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2239" s="8"/>
     </row>
-    <row r="2240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2240" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2240" s="8"/>
     </row>
-    <row r="2241" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2241" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2241" s="8"/>
     </row>
-    <row r="2242" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2242" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2242" s="8"/>
     </row>
-    <row r="2243" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2243" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2243" s="8"/>
     </row>
-    <row r="2244" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2244" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2244" s="8"/>
     </row>
-    <row r="2245" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2245" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2245" s="8"/>
     </row>
-    <row r="2246" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2246" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2246" s="8"/>
     </row>
-    <row r="2247" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2247" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2247" s="8"/>
     </row>
-    <row r="2248" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2248" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2248" s="8"/>
     </row>
-    <row r="2249" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2249" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2249" s="8"/>
     </row>
-    <row r="2250" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2250" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2250" s="8"/>
     </row>
-    <row r="2251" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2251" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2251" s="8"/>
     </row>
-    <row r="2252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2252" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2252" s="8"/>
     </row>
-    <row r="2253" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2253" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2253" s="8"/>
     </row>
-    <row r="2254" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2254" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2254" s="8"/>
     </row>
-    <row r="2255" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2255" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2255" s="8"/>
     </row>
-    <row r="2256" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2256" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2256" s="8"/>
     </row>
-    <row r="2257" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2257" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2257" s="8"/>
     </row>
-    <row r="2258" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2258" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2258" s="8"/>
     </row>
-    <row r="2259" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2259" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2259" s="8"/>
     </row>
-    <row r="2260" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2260" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2260" s="8"/>
     </row>
-    <row r="2261" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2261" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2261" s="8"/>
     </row>
-    <row r="2262" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2262" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2262" s="8"/>
     </row>
-    <row r="2263" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2263" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2263" s="8"/>
     </row>
-    <row r="2264" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2264" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2264" s="8"/>
     </row>
-    <row r="2265" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2265" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2265" s="8"/>
     </row>
-    <row r="2266" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2266" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2266" s="8"/>
     </row>
-    <row r="2267" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2267" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2267" s="8"/>
     </row>
-    <row r="2268" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2268" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2268" s="8"/>
     </row>
-    <row r="2269" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2269" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2269" s="8"/>
     </row>
-    <row r="2270" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2270" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2270" s="8"/>
     </row>
-    <row r="2271" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2271" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2271" s="8"/>
     </row>
-    <row r="2272" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2272" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2272" s="8"/>
     </row>
-    <row r="2273" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2273" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2273" s="8"/>
     </row>
-    <row r="2274" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2274" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2274" s="8"/>
     </row>
-    <row r="2275" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2275" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2275" s="8"/>
     </row>
-    <row r="2276" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2276" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2276" s="8"/>
     </row>
-    <row r="2277" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2277" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2277" s="8"/>
     </row>
-    <row r="2278" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2278" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2278" s="8"/>
     </row>
-    <row r="2279" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2279" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2279" s="8"/>
     </row>
-    <row r="2280" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2280" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2280" s="8"/>
     </row>
-    <row r="2281" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2281" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2281" s="8"/>
     </row>
-    <row r="2282" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2282" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2282" s="8"/>
     </row>
-    <row r="2283" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2283" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2283" s="8"/>
     </row>
   </sheetData>
@@ -10917,12 +10977,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -10933,7 +10993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -10941,7 +11001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -10949,7 +11009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -10957,7 +11017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>13</v>
       </c>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE24D0D-B431-456B-B14B-EB6F22243745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06510C33-421A-4E2F-AD97-F599A2719842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="tabelas" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="tabelas" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="268">
   <si>
     <t>nome</t>
   </si>
@@ -431,9 +432,6 @@
     <t>JOAQUIM SAPALO | JÚLIA ATUTO</t>
   </si>
   <si>
-    <t>Sala 6</t>
-  </si>
-  <si>
     <t>Sábado |Manhã 08h</t>
   </si>
   <si>
@@ -786,15 +784,57 @@
   </si>
   <si>
     <t>Sala 04</t>
+  </si>
+  <si>
+    <t>Sala 06</t>
+  </si>
+  <si>
+    <t>Alexandré Paulo Camoso</t>
+  </si>
+  <si>
+    <t>07/04/2010</t>
+  </si>
+  <si>
+    <t>09/07/2008</t>
+  </si>
+  <si>
+    <t>09/02/2003</t>
+  </si>
+  <si>
+    <t>14/03/2017</t>
+  </si>
+  <si>
+    <t>13/03/2013</t>
+  </si>
+  <si>
+    <t>06/07/2010</t>
+  </si>
+  <si>
+    <t>31/10/2016</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>31/07/2012</t>
+  </si>
+  <si>
+    <t>27/07/2013</t>
+  </si>
+  <si>
+    <t>18/03/2014</t>
+  </si>
+  <si>
+    <t>30/12/2007</t>
+  </si>
+  <si>
+    <t>02/10/2006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -907,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -922,7 +962,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -935,28 +974,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,19 +1323,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="16" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1308,7 +1345,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1331,224 +1368,224 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
-        <v>170</v>
+      <c r="B2" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F2" t="s">
         <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>175</v>
+      <c r="B3" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F3" t="s">
         <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="8">
-        <v>41184</v>
+      <c r="A4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>145</v>
+      <c r="B5" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>131</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B6" t="s">
-        <v>207</v>
+      <c r="B6" s="16" t="s">
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
-        <v>146</v>
+      <c r="B7" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>193</v>
+      <c r="B8" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F8" t="s">
         <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
-        <v>147</v>
+      <c r="B9" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>148</v>
+      <c r="B10" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E10" t="s">
@@ -1558,23 +1595,23 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>149</v>
+      <c r="B11" s="16" t="s">
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E11" t="s">
@@ -1587,98 +1624,98 @@
         <v>132</v>
       </c>
       <c r="H11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>150</v>
+      <c r="B12" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
         <v>140</v>
       </c>
-      <c r="G12" t="s">
-        <v>141</v>
-      </c>
       <c r="H12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
-        <v>209</v>
+      <c r="B13" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
-        <v>228</v>
+      <c r="B14" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
-        <v>202</v>
+      <c r="B15" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E15" t="s">
@@ -1691,46 +1728,46 @@
         <v>132</v>
       </c>
       <c r="H15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B16" t="s">
-        <v>221</v>
+      <c r="B16" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
-        <v>205</v>
+      <c r="B17" s="16" t="s">
+        <v>204</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E17" t="s">
@@ -1743,124 +1780,124 @@
         <v>132</v>
       </c>
       <c r="H17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
-        <v>168</v>
+      <c r="B18" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B19" t="s">
-        <v>227</v>
+      <c r="B19" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
-        <v>189</v>
+      <c r="B20" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>153</v>
+      <c r="B21" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" t="s">
         <v>135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>136</v>
       </c>
       <c r="G21" t="s">
         <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>154</v>
+      <c r="B22" s="16" t="s">
+        <v>153</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E22" t="s">
@@ -1873,176 +1910,176 @@
         <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>174</v>
+      <c r="B23" s="18" t="s">
+        <v>173</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F23" t="s">
         <v>131</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>173</v>
+      <c r="B24" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
         <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>201</v>
+      <c r="B25" s="18" t="s">
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>215</v>
+      <c r="B26" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>155</v>
+      <c r="B27" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>156</v>
+      <c r="B28" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F28" t="s">
         <v>135</v>
-      </c>
-      <c r="F28" t="s">
-        <v>136</v>
       </c>
       <c r="G28" t="s">
         <v>134</v>
       </c>
       <c r="H28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>152</v>
+      <c r="A29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>126</v>
       </c>
       <c r="E29" t="s">
@@ -2055,72 +2092,72 @@
         <v>132</v>
       </c>
       <c r="H29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>229</v>
+      <c r="A30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>228</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E30" t="s">
         <v>23</v>
       </c>
       <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
         <v>140</v>
       </c>
-      <c r="G30" t="s">
-        <v>141</v>
-      </c>
       <c r="H30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="18">
-        <v>42808</v>
+      <c r="B31" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
         <v>131</v>
       </c>
       <c r="G31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>194</v>
+      <c r="B32" s="18" t="s">
+        <v>193</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E32" t="s">
@@ -2133,98 +2170,98 @@
         <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>178</v>
+      <c r="B33" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
         <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>208</v>
+      <c r="B34" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>190</v>
+      <c r="B35" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E35" t="s">
+        <v>253</v>
+      </c>
+      <c r="F35" t="s">
         <v>135</v>
-      </c>
-      <c r="F35" t="s">
-        <v>136</v>
       </c>
       <c r="G35" t="s">
         <v>134</v>
       </c>
       <c r="H35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>196</v>
+      <c r="B36" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E36" t="s">
@@ -2237,202 +2274,202 @@
         <v>132</v>
       </c>
       <c r="H36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>219</v>
+      <c r="B37" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>158</v>
+      <c r="B38" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E38" t="s">
         <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B39" s="13">
-        <v>41346</v>
+      <c r="A39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E39" t="s">
         <v>23</v>
       </c>
       <c r="F39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" t="s">
         <v>140</v>
       </c>
-      <c r="G39" t="s">
-        <v>141</v>
-      </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="s">
-        <v>211</v>
+      <c r="B40" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>171</v>
+      <c r="B41" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F41" t="s">
         <v>131</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B42" t="s">
-        <v>176</v>
+      <c r="B42" s="16" t="s">
+        <v>175</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
         <v>131</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B43" t="s">
-        <v>214</v>
+      <c r="B43" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B44" t="s">
-        <v>159</v>
+      <c r="B44" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E44" t="s">
@@ -2442,75 +2479,75 @@
         <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
-        <v>206</v>
+      <c r="B45" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B46" t="s">
-        <v>225</v>
+      <c r="B46" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="C46" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B47" t="s">
-        <v>192</v>
+      <c r="B47" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C47" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E47" t="s">
@@ -2523,72 +2560,72 @@
         <v>132</v>
       </c>
       <c r="H47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B48" t="s">
-        <v>193</v>
+      <c r="B48" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
         <v>131</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B49" t="s">
-        <v>160</v>
+      <c r="B49" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" t="s">
         <v>131</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B50" t="s">
-        <v>157</v>
+      <c r="B50" s="16" t="s">
+        <v>156</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E50" t="s">
@@ -2598,49 +2635,49 @@
         <v>20</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
-        <v>161</v>
+      <c r="B51" s="16" t="s">
+        <v>160</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
         <v>131</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B52" t="s">
-        <v>162</v>
+      <c r="B52" s="16" t="s">
+        <v>161</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E52" t="s">
@@ -2653,46 +2690,46 @@
         <v>132</v>
       </c>
       <c r="H52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B53" t="s">
-        <v>212</v>
+      <c r="B53" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>171</v>
+      <c r="B54" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E54" t="s">
@@ -2705,46 +2742,46 @@
         <v>132</v>
       </c>
       <c r="H54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
-        <v>216</v>
+      <c r="B55" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B56" t="s">
-        <v>203</v>
+      <c r="B56" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E56" t="s">
@@ -2754,49 +2791,49 @@
         <v>18</v>
       </c>
       <c r="G56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B57" t="s">
-        <v>218</v>
+      <c r="B57" s="16" t="s">
+        <v>217</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B58" t="s">
-        <v>199</v>
+      <c r="B58" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E58" t="s">
@@ -2809,228 +2846,228 @@
         <v>132</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B59" t="s">
-        <v>224</v>
+      <c r="B59" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E59" t="s">
         <v>23</v>
       </c>
       <c r="F59" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" t="s">
         <v>140</v>
       </c>
-      <c r="G59" t="s">
-        <v>141</v>
-      </c>
       <c r="H59" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B60" t="s">
-        <v>166</v>
+      <c r="B60" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
         <v>131</v>
       </c>
       <c r="G60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B61" t="s">
-        <v>163</v>
+      <c r="B61" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F61" t="s">
         <v>131</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B62" t="s">
-        <v>220</v>
+      <c r="B62" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>165</v>
+      <c r="B63" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F63" t="s">
         <v>131</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>164</v>
+      <c r="B64" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F64" t="s">
         <v>131</v>
       </c>
       <c r="G64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H64" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>166</v>
+      <c r="B65" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="C65" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F65" t="s">
         <v>131</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>167</v>
+      <c r="B66" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
         <v>135</v>
-      </c>
-      <c r="F66" t="s">
-        <v>136</v>
       </c>
       <c r="G66" t="s">
         <v>134</v>
       </c>
       <c r="H66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="s">
-        <v>191</v>
+      <c r="B67" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E67" t="s">
@@ -3043,20 +3080,20 @@
         <v>132</v>
       </c>
       <c r="H67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>168</v>
+      <c r="B68" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E68" t="s">
@@ -3066,49 +3103,49 @@
         <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>169</v>
+      <c r="B69" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E69" t="s">
         <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>171</v>
+      <c r="B70" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C70" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E70" t="s">
@@ -3118,75 +3155,75 @@
         <v>18</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>172</v>
+      <c r="B71" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E71" t="s">
+        <v>253</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="s">
         <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>173</v>
+      <c r="B72" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E72" t="s">
         <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G72" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B73" t="s">
-        <v>197</v>
+      <c r="B73" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E73" t="s">
@@ -3199,20 +3236,20 @@
         <v>132</v>
       </c>
       <c r="H73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>174</v>
+      <c r="B74" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E74" t="s">
@@ -3222,179 +3259,179 @@
         <v>18</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B75" s="8">
-        <v>40365</v>
+      <c r="A75" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E75" t="s">
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H75" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>175</v>
+      <c r="B76" s="16" t="s">
+        <v>174</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E76" t="s">
+        <v>253</v>
+      </c>
+      <c r="F76" t="s">
         <v>135</v>
-      </c>
-      <c r="F76" t="s">
-        <v>136</v>
       </c>
       <c r="G76" t="s">
         <v>134</v>
       </c>
       <c r="H76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" t="s">
+        <v>138</v>
+      </c>
+      <c r="G77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H77" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C77" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" t="s">
-        <v>234</v>
-      </c>
-      <c r="F77" t="s">
-        <v>139</v>
-      </c>
-      <c r="G77" t="s">
-        <v>138</v>
-      </c>
-      <c r="H77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" t="s">
-        <v>223</v>
-      </c>
       <c r="C78" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E78" t="s">
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B79" t="s">
-        <v>167</v>
+      <c r="B79" s="16" t="s">
+        <v>166</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F79" t="s">
         <v>131</v>
       </c>
       <c r="G79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>177</v>
+      <c r="B80" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F80" t="s">
         <v>131</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>200</v>
+      <c r="B81" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="C81" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E81" t="s">
@@ -3404,23 +3441,23 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>178</v>
+      <c r="B82" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E82" t="s">
@@ -3433,20 +3470,20 @@
         <v>132</v>
       </c>
       <c r="H82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>179</v>
+      <c r="B83" s="16" t="s">
+        <v>178</v>
       </c>
       <c r="C83" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E83" t="s">
@@ -3456,127 +3493,127 @@
         <v>18</v>
       </c>
       <c r="G83" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B84" t="s">
-        <v>180</v>
+      <c r="B84" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F84" t="s">
         <v>135</v>
-      </c>
-      <c r="F84" t="s">
-        <v>136</v>
       </c>
       <c r="G84" t="s">
         <v>134</v>
       </c>
       <c r="H84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B85" t="s">
-        <v>151</v>
+      <c r="B85" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="C85" t="s">
         <v>24</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>127</v>
       </c>
       <c r="E85" t="s">
         <v>19</v>
       </c>
       <c r="F85" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" t="s">
         <v>140</v>
       </c>
-      <c r="G85" t="s">
-        <v>141</v>
-      </c>
       <c r="H85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B86" t="s">
-        <v>169</v>
+      <c r="B86" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="C86" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F86" t="s">
         <v>131</v>
       </c>
       <c r="G86" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B87" t="s">
-        <v>172</v>
+      <c r="B87" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="C87" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F87" t="s">
         <v>131</v>
       </c>
       <c r="G87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B88" t="s">
-        <v>181</v>
+      <c r="B88" s="16" t="s">
+        <v>180</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E88" t="s">
@@ -3589,95 +3626,95 @@
         <v>132</v>
       </c>
       <c r="H88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B89" t="s">
-        <v>182</v>
+      <c r="B89" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="C89" t="s">
         <v>24</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E89" t="s">
         <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G89" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B90" t="s">
-        <v>183</v>
+      <c r="B90" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D90" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" t="s">
         <v>135</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
       </c>
       <c r="G90" t="s">
         <v>134</v>
       </c>
       <c r="H90" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B91" t="s">
-        <v>184</v>
+      <c r="B91" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F91" t="s">
         <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H91" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D92" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E92" t="s">
@@ -3690,280 +3727,280 @@
         <v>132</v>
       </c>
       <c r="H92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B93" t="s">
-        <v>185</v>
+      <c r="B93" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E93" t="s">
         <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G93" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H93" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B94" t="s">
-        <v>226</v>
+      <c r="B94" s="16" t="s">
+        <v>225</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="D94" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E94" t="s">
+        <v>253</v>
+      </c>
+      <c r="F94" t="s">
         <v>135</v>
-      </c>
-      <c r="F94" t="s">
-        <v>136</v>
       </c>
       <c r="G94" t="s">
         <v>134</v>
       </c>
       <c r="H94" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B95" t="s">
-        <v>213</v>
+      <c r="B95" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D95" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
       </c>
       <c r="G95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B96" t="s">
-        <v>186</v>
+      <c r="B96" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
       </c>
       <c r="F96" t="s">
+        <v>136</v>
+      </c>
+      <c r="G96" t="s">
+        <v>244</v>
+      </c>
+      <c r="H96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" t="s">
+        <v>233</v>
+      </c>
+      <c r="F97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G97" t="s">
         <v>137</v>
       </c>
-      <c r="G96" t="s">
-        <v>245</v>
-      </c>
-      <c r="H96" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="C97" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E97" t="s">
-        <v>234</v>
-      </c>
-      <c r="F97" t="s">
-        <v>139</v>
-      </c>
-      <c r="G97" t="s">
-        <v>138</v>
-      </c>
       <c r="H97" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>170</v>
+      <c r="B98" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="D98" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E98" t="s">
         <v>19</v>
       </c>
       <c r="F98" t="s">
+        <v>136</v>
+      </c>
+      <c r="G98" t="s">
+        <v>244</v>
+      </c>
+      <c r="H98" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" t="s">
+        <v>233</v>
+      </c>
+      <c r="F99" t="s">
+        <v>138</v>
+      </c>
+      <c r="G99" t="s">
         <v>137</v>
       </c>
-      <c r="G98" t="s">
-        <v>245</v>
-      </c>
-      <c r="H98" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" t="s">
-        <v>234</v>
-      </c>
-      <c r="F99" t="s">
-        <v>139</v>
-      </c>
-      <c r="G99" t="s">
-        <v>138</v>
-      </c>
       <c r="H99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B100" t="s">
-        <v>187</v>
+      <c r="B100" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C100" t="s">
         <v>24</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="D100" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
         <v>135</v>
-      </c>
-      <c r="F100" t="s">
-        <v>136</v>
       </c>
       <c r="G100" t="s">
         <v>134</v>
       </c>
       <c r="H100" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B101" t="s">
-        <v>217</v>
+      <c r="B101" s="16" t="s">
+        <v>216</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="D101" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E101" t="s">
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H101" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B102" t="s">
-        <v>165</v>
+      <c r="B102" s="16" t="s">
+        <v>164</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
-      <c r="D102" s="11" t="s">
+      <c r="D102" s="10" t="s">
         <v>130</v>
       </c>
       <c r="E102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F102" t="s">
         <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B103" t="s">
-        <v>195</v>
+      <c r="B103" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E103" t="s">
@@ -3976,20 +4013,20 @@
         <v>132</v>
       </c>
       <c r="H103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>177</v>
+      <c r="B104" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E104" t="s">
@@ -4002,20 +4039,20 @@
         <v>132</v>
       </c>
       <c r="H104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B105" t="s">
-        <v>204</v>
+      <c r="B105" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E105" t="s">
@@ -4028,44 +4065,44 @@
         <v>132</v>
       </c>
       <c r="H105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B106" t="s">
-        <v>188</v>
+      <c r="B106" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
-      <c r="D106" s="11" t="s">
+      <c r="D106" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E106" t="s">
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B107" s="8"/>
+      <c r="A107" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="17"/>
       <c r="C107" t="s">
         <v>24</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="13" t="s">
         <v>126</v>
       </c>
       <c r="E107" t="s">
@@ -4078,20 +4115,20 @@
         <v>132</v>
       </c>
       <c r="H107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="19">
-        <v>40170</v>
+      <c r="B108" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
-      <c r="D108" s="11" t="s">
+      <c r="D108" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E108" t="s">
@@ -4101,303 +4138,335 @@
         <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H108" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B109" s="19">
-        <v>42674</v>
+      <c r="A109" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="11" t="s">
+      <c r="D109" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E109" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F109" t="s">
         <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="B110" s="19">
-        <v>40853</v>
+      <c r="A110" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D110" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E110" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F110" t="s">
         <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H110" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="8">
-        <v>41255</v>
+      <c r="B111" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C111" t="s">
         <v>24</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F111" t="s">
         <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B112" s="19">
-        <v>41121</v>
+      <c r="A112" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="C112" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="11" t="s">
+      <c r="D112" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E112" t="s">
+        <v>253</v>
+      </c>
+      <c r="F112" t="s">
         <v>135</v>
-      </c>
-      <c r="F112" t="s">
-        <v>136</v>
       </c>
       <c r="G112" t="s">
         <v>134</v>
       </c>
       <c r="H112" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="B113" s="20">
-        <v>41482</v>
+      <c r="A113" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
       </c>
-      <c r="D113" s="11" t="s">
+      <c r="D113" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E113" t="s">
+        <v>253</v>
+      </c>
+      <c r="F113" t="s">
         <v>135</v>
-      </c>
-      <c r="F113" t="s">
-        <v>136</v>
       </c>
       <c r="G113" t="s">
         <v>134</v>
       </c>
       <c r="H113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="19">
-        <v>41716</v>
+      <c r="A114" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="C114" t="s">
         <v>24</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D114" s="10" t="s">
         <v>128</v>
       </c>
       <c r="E114" t="s">
+        <v>253</v>
+      </c>
+      <c r="F114" t="s">
         <v>135</v>
-      </c>
-      <c r="F114" t="s">
-        <v>136</v>
       </c>
       <c r="G114" t="s">
         <v>134</v>
       </c>
       <c r="H114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="19">
-        <v>39446</v>
+      <c r="A115" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="C115" t="s">
         <v>24</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E115" t="s">
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B116" s="19">
-        <v>40275</v>
+      <c r="A116" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="11" t="s">
+      <c r="D116" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E116" t="s">
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="B117" s="19">
-        <v>40650</v>
+      <c r="A117" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E117" t="s">
         <v>19</v>
       </c>
       <c r="F117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B118" s="19">
-        <v>39638</v>
+      <c r="A118" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="C118" t="s">
         <v>24</v>
       </c>
-      <c r="D118" s="11" t="s">
+      <c r="D118" s="10" t="s">
         <v>125</v>
       </c>
       <c r="E118" t="s">
         <v>19</v>
       </c>
       <c r="F118" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" t="s">
+        <v>244</v>
+      </c>
+      <c r="H118" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" t="s">
+        <v>138</v>
+      </c>
+      <c r="G119" t="s">
         <v>137</v>
       </c>
-      <c r="G118" t="s">
-        <v>245</v>
-      </c>
-      <c r="H118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="B119" s="19">
-        <v>38992</v>
-      </c>
-      <c r="C119" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E119" t="s">
-        <v>234</v>
-      </c>
-      <c r="F119" t="s">
-        <v>139</v>
-      </c>
-      <c r="G119" t="s">
-        <v>138</v>
-      </c>
       <c r="H119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E120" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" t="s">
+        <v>136</v>
+      </c>
+      <c r="G120" t="s">
+        <v>244</v>
+      </c>
+      <c r="H120" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E124" s="12"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E125" s="12"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E126" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H119" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
     <sortCondition ref="A1:A127"/>
   </sortState>
@@ -4407,6 +4476,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0553C8-1364-4B16-960A-AEABA539F284}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A44818F-35C6-4CA8-B925-406E5B547076}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06510C33-421A-4E2F-AD97-F599A2719842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9C1258-F2D6-4AA5-814E-B3AD00F32ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
-    <sheet name="tabelas" sheetId="2" r:id="rId3"/>
+    <sheet name="tabelas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$120</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="271">
   <si>
     <t>nome</t>
   </si>
@@ -829,6 +828,15 @@
   </si>
   <si>
     <t>02/10/2006</t>
+  </si>
+  <si>
+    <t>Maria Eyulo</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Sapalo</t>
   </si>
 </sst>
 </file>
@@ -947,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -994,6 +1002,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,10 +1338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="103" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4456,14 +4471,56 @@
         <v>229</v>
       </c>
     </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="21">
+        <v>38992</v>
+      </c>
+      <c r="C121" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" t="s">
+        <v>233</v>
+      </c>
+      <c r="F121" t="s">
+        <v>138</v>
+      </c>
+      <c r="G121" t="s">
+        <v>270</v>
+      </c>
+      <c r="H121" t="s">
+        <v>229</v>
+      </c>
+    </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="12"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="19"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E125" s="12"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="19"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E126" s="12"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="19"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H120" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -4476,23 +4533,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0553C8-1364-4B16-960A-AEABA539F284}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A44818F-35C6-4CA8-B925-406E5B547076}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDBF56D-4E20-4945-9D38-C9CB639A6836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D6FD5-885D-4AB6-B399-E3EAEB27701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9975" yWindow="525" windowWidth="12705" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="tabelas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$124</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="271">
   <si>
     <t>nome</t>
   </si>
@@ -827,16 +827,16 @@
     <t>02/10/2006</t>
   </si>
   <si>
-    <t>Maria Eyulo</t>
-  </si>
-  <si>
-    <t>Sede</t>
-  </si>
-  <si>
-    <t>Sapalo</t>
-  </si>
-  <si>
     <t>ALDA SILVA | CELINA SAPALO</t>
+  </si>
+  <si>
+    <t>Bernardo José de Carvalho</t>
+  </si>
+  <si>
+    <t>Jean Jorge Ganda Balgido</t>
+  </si>
+  <si>
+    <t>Lincoque da Silva Augusto Baptista</t>
   </si>
 </sst>
 </file>
@@ -955,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -997,6 +997,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,10 +1332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A121" sqref="A2:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1455,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>26</v>
       </c>
@@ -1526,7 +1533,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -1578,7 +1585,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
@@ -1624,13 +1631,13 @@
         <v>20</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>83</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>228</v>
@@ -1760,7 +1767,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>86</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H17" s="16" t="s">
         <v>228</v>
@@ -1838,7 +1845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>70</v>
       </c>
@@ -1864,7 +1871,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
@@ -1910,7 +1917,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H22" s="16" t="s">
         <v>228</v>
@@ -1968,7 +1975,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>82</v>
       </c>
@@ -1994,7 +2001,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>101</v>
       </c>
@@ -2020,7 +2027,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
@@ -2046,7 +2053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
@@ -2072,7 +2079,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>141</v>
       </c>
@@ -2092,13 +2099,13 @@
         <v>20</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>141</v>
       </c>
@@ -2150,7 +2157,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
@@ -2170,7 +2177,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>228</v>
@@ -2228,7 +2235,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>77</v>
       </c>
@@ -2274,7 +2281,7 @@
         <v>20</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>228</v>
@@ -2306,7 +2313,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -2332,7 +2339,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>140</v>
       </c>
@@ -2462,7 +2469,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>37</v>
       </c>
@@ -2540,7 +2547,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>73</v>
       </c>
@@ -2560,13 +2567,13 @@
         <v>20</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>132</v>
       </c>
@@ -2592,7 +2599,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>38</v>
       </c>
@@ -2618,7 +2625,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>35</v>
       </c>
@@ -2644,7 +2651,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>39</v>
       </c>
@@ -2670,7 +2677,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>40</v>
       </c>
@@ -2690,13 +2697,13 @@
         <v>20</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>97</v>
       </c>
@@ -2722,7 +2729,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>228</v>
@@ -2774,7 +2781,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>84</v>
       </c>
@@ -2826,7 +2833,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>80</v>
       </c>
@@ -2846,13 +2853,13 @@
         <v>20</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>115</v>
       </c>
@@ -2904,7 +2911,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>41</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>43</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>44</v>
       </c>
@@ -3034,7 +3041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>45</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>72</v>
       </c>
@@ -3080,13 +3087,13 @@
         <v>20</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>46</v>
       </c>
@@ -3112,7 +3119,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>47</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>50</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>51</v>
       </c>
@@ -3216,7 +3223,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>78</v>
       </c>
@@ -3236,13 +3243,13 @@
         <v>20</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H73" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>231</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>53</v>
       </c>
@@ -3346,7 +3353,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>114</v>
       </c>
@@ -3398,7 +3405,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>56</v>
       </c>
@@ -3424,7 +3431,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>81</v>
       </c>
@@ -3450,7 +3457,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>57</v>
       </c>
@@ -3470,13 +3477,13 @@
         <v>20</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>58</v>
       </c>
@@ -3502,7 +3509,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>59</v>
       </c>
@@ -3528,7 +3535,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>60</v>
       </c>
@@ -3606,7 +3613,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>61</v>
       </c>
@@ -3626,13 +3633,13 @@
         <v>20</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>62</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>63</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>64</v>
       </c>
@@ -3710,7 +3717,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>87</v>
       </c>
@@ -3728,13 +3735,13 @@
         <v>20</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>65</v>
       </c>
@@ -3760,7 +3767,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>121</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>66</v>
       </c>
@@ -3864,7 +3871,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>48</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>67</v>
       </c>
@@ -3942,7 +3949,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>104</v>
       </c>
@@ -3994,7 +4001,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>76</v>
       </c>
@@ -4014,13 +4021,13 @@
         <v>20</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H103" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>119</v>
       </c>
@@ -4040,13 +4047,13 @@
         <v>131</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H104" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>85</v>
       </c>
@@ -4066,13 +4073,13 @@
         <v>20</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H105" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>68</v>
       </c>
@@ -4098,7 +4105,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>235</v>
       </c>
@@ -4116,13 +4123,13 @@
         <v>20</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H107" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>54</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>238</v>
       </c>
@@ -4174,7 +4181,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>239</v>
       </c>
@@ -4200,7 +4207,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>40</v>
       </c>
@@ -4226,7 +4233,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>240</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>241</v>
       </c>
@@ -4278,7 +4285,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>242</v>
       </c>
@@ -4304,7 +4311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>244</v>
       </c>
@@ -4330,7 +4337,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>245</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>246</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>247</v>
       </c>
@@ -4462,13 +4469,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>256</v>
+        <v>270</v>
+      </c>
+      <c r="B121" s="19">
+        <v>42688</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>130</v>
@@ -4480,14 +4487,89 @@
         <v>137</v>
       </c>
       <c r="G121" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H121" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B122" s="18">
+        <v>37661</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G122" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H122" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" s="18">
+        <v>40229</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G123" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="H123" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H121" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E124" s="5"/>
+      <c r="B124" s="18">
+        <v>42680</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G124" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E125" s="5"/>
@@ -4496,7 +4578,13 @@
       <c r="E126" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H124" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Pré Catequese"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
     <sortCondition ref="A1:A127"/>
   </sortState>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545D6FD5-885D-4AB6-B399-E3EAEB27701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EDA39-F411-4050-BB43-139EE6102555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9975" yWindow="525" windowWidth="12705" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="268">
   <si>
     <t>nome</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Sala 07</t>
   </si>
   <si>
-    <t>Sábado | Manhã 8h</t>
-  </si>
-  <si>
     <t>Sala 03</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>JOAQUIM SAPALO | JÚLIA ATUTO</t>
   </si>
   <si>
-    <t>Sábado |Manhã 08h</t>
-  </si>
-  <si>
     <t>Domingo | Manhã 07h30</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
   </si>
   <si>
     <t>Domingo | Manhã 08h</t>
-  </si>
-  <si>
-    <t>Sábado | Manhã  08h</t>
   </si>
   <si>
     <t>JOENA LECTÍCIA</t>
@@ -1336,7 +1327,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="A121" sqref="A2:A121"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,3196 +1370,3196 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="B7" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="B12" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="B22" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>252</v>
-      </c>
       <c r="F35" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F37" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F38" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G38" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="G40" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F44" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F45" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F46" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G46" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G50" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="16" t="s">
+      <c r="H50" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G48" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F52" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F55" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F56" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G57" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>139</v>
-      </c>
       <c r="H59" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G60" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="H60" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>237</v>
-      </c>
       <c r="H61" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="16" t="s">
+      <c r="C66" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="H64" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H65" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="F66" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" s="16" t="s">
+      <c r="B68" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F68" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F75" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F76" s="16" t="s">
+      <c r="G77" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G76" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>136</v>
-      </c>
       <c r="H77" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G78" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="H79" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>237</v>
-      </c>
       <c r="H80" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F83" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="B85" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G89" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F90" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="B91" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F91" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G91" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F92" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G92" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E93" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F93" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G93" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G95" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F96" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G96" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="G97" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F99" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G98" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F99" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="G99" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G100" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G101" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F103" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G103" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F104" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B107" s="17"/>
       <c r="C107" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F108" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H108" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H109" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H108" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="B110" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H111" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B113" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C109" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G109" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="C113" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H113" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B114" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C110" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G110" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H110" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G111" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="H111" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H113" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>264</v>
-      </c>
       <c r="C114" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F114" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G114" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G116" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G117" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F118" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G118" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F119" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="G118" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="F119" s="16" t="s">
-        <v>137</v>
-      </c>
       <c r="G119" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>256</v>
-      </c>
       <c r="C120" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G120" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B121" s="19">
         <v>42688</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G121" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B122" s="18">
         <v>37661</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E122" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B123" s="18">
         <v>40229</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G123" s="16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B124" s="18">
         <v>42680</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4579,9 +4570,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H124" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Pré Catequese"/>
+        <filter val="Sábado | Manhã 08h"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030EDA39-F411-4050-BB43-139EE6102555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47895693-BEA9-46DA-ACD9-00FB01A5CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="269">
   <si>
     <t>nome</t>
   </si>
@@ -818,9 +818,6 @@
     <t>02/10/2006</t>
   </si>
   <si>
-    <t>ALDA SILVA | CELINA SAPALO</t>
-  </si>
-  <si>
     <t>Bernardo José de Carvalho</t>
   </si>
   <si>
@@ -828,6 +825,12 @@
   </si>
   <si>
     <t>Lincoque da Silva Augusto Baptista</t>
+  </si>
+  <si>
+    <t>ALDA DOS SANTOS | CELINA SAPALO</t>
+  </si>
+  <si>
+    <t>Sala 10</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -965,9 +968,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1327,13 +1327,13 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1343,22 +1343,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1368,55 +1368,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1427,48 +1427,48 @@
       <c r="B4" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1476,103 +1476,103 @@
       <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1580,77 +1580,77 @@
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1658,25 +1658,25 @@
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1684,51 +1684,51 @@
       <c r="A14" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="16" t="s">
+      <c r="F15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1736,77 +1736,77 @@
       <c r="A16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -1814,337 +1814,337 @@
       <c r="A19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E20" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="16" t="s">
+      <c r="E26" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H27" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30" s="16" t="s">
+      <c r="E30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2152,51 +2152,51 @@
       <c r="A32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G33" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2204,77 +2204,77 @@
       <c r="A34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="16" t="s">
+      <c r="E34" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H36" s="16" t="s">
+      <c r="F36" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2282,77 +2282,77 @@
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" s="16" t="s">
+      <c r="E39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G39" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2360,77 +2360,77 @@
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G42" s="16" t="s">
+      <c r="F42" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2438,25 +2438,25 @@
       <c r="A43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2464,25 +2464,25 @@
       <c r="A44" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2490,25 +2490,25 @@
       <c r="A45" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2516,233 +2516,233 @@
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F47" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G48" s="16" t="s">
+      <c r="F48" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H48" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="16" t="s">
+      <c r="F49" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H49" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="16" t="s">
+      <c r="F50" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H50" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G51" s="16" t="s">
+      <c r="F51" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H51" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H52" s="16" t="s">
+      <c r="F52" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H52" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="E53" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H53" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H54" s="16" t="s">
+      <c r="F54" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2750,25 +2750,25 @@
       <c r="A55" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2776,25 +2776,25 @@
       <c r="A56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2802,129 +2802,129 @@
       <c r="A57" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="E57" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G58" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H58" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F58" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="16" t="s">
+      <c r="E59" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H59" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H60" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F61" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61" s="16" t="s">
+      <c r="F61" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2932,207 +2932,207 @@
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F63" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G63" s="16" t="s">
+      <c r="F63" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G63" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H63" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F64" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G64" s="16" t="s">
+      <c r="F64" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G64" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H64" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F65" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G65" s="16" t="s">
+      <c r="F65" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H65" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="16" t="s">
+      <c r="F66" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H66" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G67" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F67" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="16">
+        <v>40871</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F68" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="16" t="s">
+      <c r="F68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="16" t="s">
+      <c r="E69" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F69" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3140,103 +3140,103 @@
       <c r="A70" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H70" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G71" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="16" t="s">
+      <c r="E72" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G72" s="16" t="s">
+      <c r="G72" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H72" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H73" s="16" t="s">
+      <c r="F73" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3244,77 +3244,77 @@
       <c r="A74" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H74" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>228</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E75" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="16" t="s">
+      <c r="E75" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H75" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F76" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G76" s="16" t="s">
+      <c r="F76" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G76" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3322,103 +3322,103 @@
       <c r="A77" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F77" s="16" t="s">
+      <c r="E77" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G77" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H77" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H77" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C78" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="16" t="s">
+      <c r="E78" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F78" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="16" t="s">
+      <c r="C79" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F79" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G79" s="16" t="s">
+      <c r="F79" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G79" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H79" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C80" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F80" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G80" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3426,51 +3426,51 @@
       <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H81" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F82" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H82" s="16" t="s">
+      <c r="F82" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3478,309 +3478,309 @@
       <c r="A83" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H83" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F84" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G84" s="16" t="s">
+      <c r="F84" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H84" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G85" s="16" t="s">
+      <c r="F85" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G85" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="H85" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F86" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G86" s="16" t="s">
+      <c r="F86" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H86" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F87" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G87" s="16" t="s">
+      <c r="F87" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G87" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H87" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G88" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H88" s="16" t="s">
+      <c r="F88" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H88" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F89" s="16" t="s">
+      <c r="E89" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F89" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G89" s="16" t="s">
+      <c r="G89" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H89" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F90" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G90" s="16" t="s">
+      <c r="F90" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G90" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H90" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G91" s="16" t="s">
+      <c r="F91" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H91" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="16" t="s">
+      <c r="B92" s="14"/>
+      <c r="C92" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H92" s="16" t="s">
+      <c r="F92" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H92" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F93" s="16" t="s">
+      <c r="E93" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F93" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G93" s="16" t="s">
+      <c r="G93" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H93" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G94" s="16" t="s">
+      <c r="F94" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3788,51 +3788,51 @@
       <c r="A95" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C95" s="16" t="s">
+      <c r="C95" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="F95" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G95" s="16" t="s">
+      <c r="G95" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E96" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="E96" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F96" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G96" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3840,51 +3840,51 @@
       <c r="A97" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E97" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F97" s="16" t="s">
+      <c r="E97" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G97" s="16" t="s">
+      <c r="G97" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F98" s="16" t="s">
+      <c r="E98" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F98" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G98" s="16" t="s">
+      <c r="G98" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H98" s="16" t="s">
+      <c r="H98" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3892,231 +3892,231 @@
       <c r="A99" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C99" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F99" s="16" t="s">
+      <c r="E99" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G99" s="16" t="s">
+      <c r="G99" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H99" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C100" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F100" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G100" s="16" t="s">
+      <c r="F100" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H100" s="16" t="s">
+      <c r="H100" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E101" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" s="16" t="s">
+      <c r="E101" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G101" s="16" t="s">
+      <c r="G101" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H101" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="C102" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="F102" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G102" s="16" t="s">
+      <c r="F102" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G102" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H102" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F103" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H103" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F103" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F104" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F104" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F105" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G105" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H105" s="16" t="s">
+      <c r="F105" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H105" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" s="16" t="s">
+      <c r="E106" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F106" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G106" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H106" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="17"/>
-      <c r="C107" s="16" t="s">
+      <c r="B107" s="16"/>
+      <c r="C107" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="H107" s="16" t="s">
+      <c r="F107" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="H107" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4127,282 +4127,282 @@
       <c r="B108" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G108" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H108" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C109" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F109" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G109" s="16" t="s">
+      <c r="F109" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H109" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F110" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G110" s="16" t="s">
+      <c r="F110" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H110" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F111" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G111" s="16" t="s">
+      <c r="F111" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H111" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G112" s="16" t="s">
+      <c r="F112" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H112" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F113" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G113" s="16" t="s">
+      <c r="F113" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H113" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C114" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F114" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G114" s="16" t="s">
+      <c r="F114" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G114" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="H114" s="16" t="s">
+      <c r="H114" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="10" t="s">
         <v>241</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C115" s="16" t="s">
+      <c r="C115" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="16" t="s">
+      <c r="E115" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F115" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G115" s="16" t="s">
+      <c r="G115" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H115" s="16" t="s">
+      <c r="H115" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="10" t="s">
         <v>242</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C116" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E116" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="16" t="s">
+      <c r="E116" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F116" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G116" s="16" t="s">
+      <c r="G116" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="10" t="s">
         <v>243</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C117" s="16" t="s">
+      <c r="C117" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E117" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="16" t="s">
+      <c r="E117" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H117" s="16" t="s">
+      <c r="H117" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="10" t="s">
         <v>244</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C118" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D118" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E118" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" s="16" t="s">
+      <c r="E118" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F118" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4413,22 +4413,22 @@
       <c r="B119" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C119" s="16" t="s">
+      <c r="C119" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E119" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F119" s="16" t="s">
+      <c r="E119" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4439,48 +4439,48 @@
       <c r="B120" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C120" s="16" t="s">
+      <c r="C120" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="16" t="s">
+      <c r="E120" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G120" s="16" t="s">
+      <c r="G120" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="H120" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B121" s="19">
+        <v>266</v>
+      </c>
+      <c r="B121" s="18">
         <v>42688</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C121" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E121" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F121" s="16" t="s">
+      <c r="E121" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="F121" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G121" s="16" t="s">
+      <c r="G121" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4488,77 +4488,77 @@
       <c r="A122" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B122" s="18">
+      <c r="B122" s="17">
         <v>37661</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E122" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="16" t="s">
+      <c r="E122" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F122" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G122" s="16" t="s">
+      <c r="G122" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="H122" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B123" s="18">
+        <v>264</v>
+      </c>
+      <c r="B123" s="17">
         <v>40229</v>
       </c>
-      <c r="C123" s="16" t="s">
+      <c r="C123" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D123" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E123" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="16" t="s">
+      <c r="E123" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F123" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G123" s="16" t="s">
+      <c r="G123" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H123" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B124" s="18">
+        <v>265</v>
+      </c>
+      <c r="B124" s="17">
         <v>42680</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C124" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F124" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" s="16" t="s">
+      <c r="F124" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G124" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H124" s="16" t="s">
+      <c r="H124" s="15" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4570,9 +4570,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H124" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
+    <filterColumn colId="4">
       <filters>
-        <filter val="Sábado | Manhã 08h"/>
+        <filter val="Sala 09"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="HELENA DAMBI"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47895693-BEA9-46DA-ACD9-00FB01A5CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F3B54-EA32-4297-B0E5-77D44C15D1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>102</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>111</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>93</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>69</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>110</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>226</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>119</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>117</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>115</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>88</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>41</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>228</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>113</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>92</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>99</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>105</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>68</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G120" s="15" t="s">
         <v>134</v>
@@ -4458,7 +4458,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>266</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>246</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G121" s="15" t="s">
         <v>231</v>
@@ -4570,14 +4570,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H124" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Sala 09"/>
+        <filter val="Pré Catequese"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="HELENA DAMBI"/>
+        <filter val="JOAQUIM SAPALO|LEANDRO MORAIS| FRANCILIA QUISSOLA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dados-catequese.xlsx
+++ b/dados-catequese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Igreja\Catequese\Vianney\Cate2025_2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F3B54-EA32-4297-B0E5-77D44C15D1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391454F0-5B77-4DC5-A168-1AA8A1FF3334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1323,11 +1323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F128" sqref="F128"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1419,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>227</v>
       </c>
@@ -1446,7 +1445,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
@@ -1498,7 +1497,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1524,7 +1523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>73</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1576,7 +1575,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -1602,7 +1601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>122</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>82</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>109</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>121</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>69</v>
       </c>
@@ -1862,7 +1861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
@@ -1966,7 +1965,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>81</v>
       </c>
@@ -1992,7 +1991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>100</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
@@ -2070,7 +2069,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>138</v>
       </c>
@@ -2096,7 +2095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>138</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>74</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>90</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>70</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>76</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>35</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>137</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>95</v>
       </c>
@@ -2434,7 +2433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>98</v>
       </c>
@@ -2460,7 +2459,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>36</v>
       </c>
@@ -2486,7 +2485,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>87</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>116</v>
       </c>
@@ -2538,7 +2537,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>72</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>131</v>
       </c>
@@ -2590,7 +2589,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>37</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>34</v>
       </c>
@@ -2642,7 +2641,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>38</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>39</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>96</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>54</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>101</v>
       </c>
@@ -2772,7 +2771,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>83</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>104</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>79</v>
       </c>
@@ -2850,7 +2849,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>114</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>40</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>108</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>42</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>43</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>44</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -3084,7 +3083,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>45</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>46</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>48</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>49</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>50</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
@@ -3240,7 +3239,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>51</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>228</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>52</v>
       </c>
@@ -3318,7 +3317,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>112</v>
       </c>
@@ -3344,7 +3343,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>113</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>55</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>80</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>56</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>57</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>58</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>59</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>60</v>
       </c>
@@ -3630,7 +3629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>61</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>62</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>63</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>86</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>64</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>120</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>97</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>65</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>78</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>47</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>94</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>66</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>103</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>75</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>118</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>84</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>67</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>232</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>53</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>235</v>
       </c>
@@ -4172,7 +4171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>236</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>39</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>237</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>238</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>239</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>241</v>
       </c>
@@ -4328,7 +4327,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>242</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>243</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>244</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>245</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>250</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>250</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>264</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>265</v>
       </c>
@@ -4569,18 +4568,7 @@
       <c r="E126" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H124" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Pré Catequese"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="JOAQUIM SAPALO|LEANDRO MORAIS| FRANCILIA QUISSOLA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H127">
     <sortCondition ref="A1:A127"/>
   </sortState>
